--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2373310.39898239</v>
+        <v>2370364.712594954</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673466</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9276235.262065837</v>
+        <v>9276235.262065839</v>
       </c>
     </row>
     <row r="11">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1297,67 +1297,67 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="R10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J10" t="n">
+      <c r="Y10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>263.7658736729898</v>
       </c>
       <c r="G11" t="n">
-        <v>269.6467087972036</v>
+        <v>409.9169402527721</v>
       </c>
       <c r="H11" t="n">
-        <v>284.3175059025928</v>
+        <v>284.3175059025927</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.839940613158575</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>86.2912144701499</v>
+        <v>86.29121447014978</v>
       </c>
       <c r="T11" t="n">
         <v>199.5195220481376</v>
@@ -1464,10 +1464,10 @@
         <v>134.4618615808058</v>
       </c>
       <c r="H12" t="n">
-        <v>84.404717953797</v>
+        <v>84.40471795379698</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3074838514119875</v>
+        <v>0.3074838514119165</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>118.1576825446952</v>
+        <v>118.1576825446951</v>
       </c>
       <c r="T12" t="n">
         <v>188.5496344832863</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.84022469430744</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.7477742534314</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>82.79827715194224</v>
+        <v>68.88780000512082</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>68.66649591262497</v>
       </c>
       <c r="S13" t="n">
         <v>181.914341950128</v>
@@ -1613,19 +1613,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>238.8201980035401</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>266.8067681840452</v>
+        <v>409.9169402527721</v>
       </c>
       <c r="H14" t="n">
-        <v>284.3175059025928</v>
+        <v>284.3175059025927</v>
       </c>
       <c r="I14" t="n">
-        <v>2.839940613158717</v>
+        <v>2.839940613158603</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>86.29121447014987</v>
+        <v>86.29121447014981</v>
       </c>
       <c r="T14" t="n">
         <v>199.5195220481376</v>
@@ -1701,10 +1701,10 @@
         <v>134.4618615808058</v>
       </c>
       <c r="H15" t="n">
-        <v>84.40471795379699</v>
+        <v>84.40471795379698</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3074838514119733</v>
+        <v>0.3074838514119307</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5750961192554</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.7477742534314</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>82.79827715194223</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>68.66649591262498</v>
       </c>
       <c r="S16" t="n">
         <v>181.914341950128</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>260.3146679486094</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.0961090538316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>222.162719702285</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>269.6467087972036</v>
+        <v>409.9169402527721</v>
       </c>
       <c r="H17" t="n">
-        <v>284.3175059025928</v>
+        <v>284.3175059025927</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.839940613158603</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>86.2912144701499</v>
+        <v>86.29121447014981</v>
       </c>
       <c r="T17" t="n">
         <v>199.5195220481376</v>
@@ -1938,10 +1938,10 @@
         <v>134.4618615808058</v>
       </c>
       <c r="H18" t="n">
-        <v>84.404717953797</v>
+        <v>84.40471795379698</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3074838514119875</v>
+        <v>0.3074838514119307</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>118.1576825446952</v>
+        <v>118.1576825446951</v>
       </c>
       <c r="T18" t="n">
         <v>188.5496344832863</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5750961192554</v>
       </c>
       <c r="H19" t="n">
-        <v>140.7477742534314</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>82.79827715194224</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.66649591262507</v>
+        <v>68.66649591262498</v>
       </c>
       <c r="S19" t="n">
         <v>181.914341950128</v>
@@ -2059,10 +2059,10 @@
         <v>286.1872539070798</v>
       </c>
       <c r="V19" t="n">
-        <v>78.84804384315777</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>24.77039149547083</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,16 +2090,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>263.7658736729888</v>
       </c>
       <c r="G20" t="n">
         <v>409.9169402527721</v>
       </c>
       <c r="H20" t="n">
-        <v>284.3175059025928</v>
+        <v>284.3175059025927</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.839940613158603</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>86.29121447014981</v>
       </c>
       <c r="T20" t="n">
-        <v>145.5405050627189</v>
+        <v>199.5195220481376</v>
       </c>
       <c r="U20" t="n">
         <v>250.9147891268475</v>
@@ -2175,10 +2175,10 @@
         <v>134.4618615808058</v>
       </c>
       <c r="H21" t="n">
-        <v>84.404717953797</v>
+        <v>84.40471795379698</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3074838514119875</v>
+        <v>0.3074838514119307</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>118.1576825446952</v>
+        <v>118.1576825446951</v>
       </c>
       <c r="T21" t="n">
         <v>188.5496344832863</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5750961192554</v>
+        <v>49.24353730106724</v>
       </c>
       <c r="H22" t="n">
-        <v>140.7477742534314</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>82.79827715194224</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.66649591262507</v>
+        <v>68.66649591262498</v>
       </c>
       <c r="S22" t="n">
         <v>181.914341950128</v>
@@ -2293,7 +2293,7 @@
         <v>217.6231792244125</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1872539070798</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>169.8377887009104</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H23" t="n">
         <v>283.5630920045443</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081957</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>78.84371500925177</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.80457674440902</v>
@@ -2530,7 +2530,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>148.4939090185328</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22.01943279781298</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>177.4576418585912</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>47.2757295253382</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>97.1690344924848</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,10 +3193,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5420528771669</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S34" t="n">
         <v>181.338488358459</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>202.3535444706169</v>
       </c>
       <c r="X34" t="n">
-        <v>96.69792262658369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754677</v>
       </c>
       <c r="H35" t="n">
         <v>283.5630920045443</v>
@@ -3320,7 +3320,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>200.6173698503559</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>160.7759248421993</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>137.609624481402</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672535</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.32106446352932</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>114.7706165465611</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>128.3729041642961</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>356.5845196044208</v>
       </c>
       <c r="G41" t="n">
         <v>409.8432760127576</v>
@@ -3794,7 +3794,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>200.6173698503577</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>1.749532638426672</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>89.97676987683025</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
         <v>286.1854515484204</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6388439349726</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3992,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>233.2715658672533</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>153.9036548888868</v>
+        <v>80.67009812108986</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
         <v>14.44108515774386</v>
@@ -4802,34 +4802,34 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="K8" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L8" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M8" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O8" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
         <v>20.55868221764227</v>
@@ -4838,16 +4838,16 @@
         <v>20.55868221764227</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
         <v>0.5500836593369149</v>
@@ -4881,22 +4881,22 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="K9" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="K9" t="n">
-        <v>13.8896123982571</v>
-      </c>
       <c r="L9" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4908,25 +4908,25 @@
         <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M10" t="n">
-        <v>7.357368943631237</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N10" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X10" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2174.577403197354</v>
+        <v>2174.577403197361</v>
       </c>
       <c r="C11" t="n">
-        <v>1805.614886256943</v>
+        <v>1805.614886256949</v>
       </c>
       <c r="D11" t="n">
-        <v>1447.349187650193</v>
+        <v>1447.349187650198</v>
       </c>
       <c r="E11" t="n">
-        <v>1061.560935051948</v>
+        <v>1061.560935051954</v>
       </c>
       <c r="F11" t="n">
-        <v>650.5750302623408</v>
+        <v>795.1307596246918</v>
       </c>
       <c r="G11" t="n">
-        <v>378.2046173358729</v>
+        <v>381.0732442178513</v>
       </c>
       <c r="H11" t="n">
-        <v>91.015217434264</v>
+        <v>93.88384431624247</v>
       </c>
       <c r="I11" t="n">
-        <v>91.015217434264</v>
+        <v>91.01521743426412</v>
       </c>
       <c r="J11" t="n">
-        <v>364.3214542453561</v>
+        <v>364.3214542453566</v>
       </c>
       <c r="K11" t="n">
-        <v>824.6751741380026</v>
+        <v>824.6751741380028</v>
       </c>
       <c r="L11" t="n">
-        <v>1432.68643278325</v>
+        <v>1432.686432783252</v>
       </c>
       <c r="M11" t="n">
-        <v>2140.885546697687</v>
+        <v>2140.88554669769</v>
       </c>
       <c r="N11" t="n">
-        <v>2865.157871053471</v>
+        <v>2865.157871053475</v>
       </c>
       <c r="O11" t="n">
-        <v>3535.732427750066</v>
+        <v>3535.73242775007</v>
       </c>
       <c r="P11" t="n">
-        <v>4073.551296740974</v>
+        <v>4073.551296740979</v>
       </c>
       <c r="Q11" t="n">
-        <v>4429.258122740104</v>
+        <v>4429.25812274011</v>
       </c>
       <c r="R11" t="n">
-        <v>4550.7608717132</v>
+        <v>4550.760871713205</v>
       </c>
       <c r="S11" t="n">
-        <v>4463.598028814058</v>
+        <v>4463.598028814064</v>
       </c>
       <c r="T11" t="n">
-        <v>4262.063158058363</v>
+        <v>4262.063158058369</v>
       </c>
       <c r="U11" t="n">
-        <v>4008.613876112053</v>
+        <v>4008.613876112059</v>
       </c>
       <c r="V11" t="n">
-        <v>3677.550988768482</v>
+        <v>3677.550988768488</v>
       </c>
       <c r="W11" t="n">
-        <v>3324.782333498368</v>
+        <v>3324.782333498374</v>
       </c>
       <c r="X11" t="n">
-        <v>2951.316575237288</v>
+        <v>2951.316575237294</v>
       </c>
       <c r="Y11" t="n">
-        <v>2561.177243261476</v>
+        <v>2561.177243261483</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.5830980455862</v>
       </c>
       <c r="H12" t="n">
-        <v>91.325807183165</v>
+        <v>91.32580718316503</v>
       </c>
       <c r="I12" t="n">
-        <v>91.015217434264</v>
+        <v>91.0152174342641</v>
       </c>
       <c r="J12" t="n">
-        <v>234.9766927867948</v>
+        <v>91.0152174342641</v>
       </c>
       <c r="K12" t="n">
-        <v>234.9766927867948</v>
+        <v>415.2231333830935</v>
       </c>
       <c r="L12" t="n">
-        <v>234.9766927867948</v>
+        <v>897.4832272733104</v>
       </c>
       <c r="M12" t="n">
-        <v>817.1083437898421</v>
+        <v>1479.614878276358</v>
       </c>
       <c r="N12" t="n">
-        <v>1429.055932323899</v>
+        <v>1982.120450133379</v>
       </c>
       <c r="O12" t="n">
-        <v>1966.648626968323</v>
+        <v>2519.713144777804</v>
       </c>
       <c r="P12" t="n">
-        <v>2378.781093186359</v>
+        <v>2519.713144777804</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.616704538909</v>
+        <v>2519.713144777804</v>
       </c>
       <c r="R12" t="n">
         <v>2552.616704538909</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>613.8258966731703</v>
+        <v>457.6054407133192</v>
       </c>
       <c r="C13" t="n">
-        <v>613.8258966731703</v>
+        <v>457.6054407133191</v>
       </c>
       <c r="D13" t="n">
-        <v>463.7092572608345</v>
+        <v>307.4888013009834</v>
       </c>
       <c r="E13" t="n">
-        <v>463.7092572608345</v>
+        <v>307.4888013009834</v>
       </c>
       <c r="F13" t="n">
-        <v>316.8193097629241</v>
+        <v>160.598853803073</v>
       </c>
       <c r="G13" t="n">
-        <v>316.8193097629241</v>
+        <v>160.598853803073</v>
       </c>
       <c r="H13" t="n">
-        <v>174.6498408200642</v>
+        <v>160.598853803073</v>
       </c>
       <c r="I13" t="n">
-        <v>91.015217434264</v>
+        <v>91.0152174342641</v>
       </c>
       <c r="J13" t="n">
-        <v>167.6845446803197</v>
+        <v>167.68454468032</v>
       </c>
       <c r="K13" t="n">
-        <v>423.5126379458677</v>
+        <v>423.5126379458682</v>
       </c>
       <c r="L13" t="n">
-        <v>806.4109533989686</v>
+        <v>806.4109533989695</v>
       </c>
       <c r="M13" t="n">
-        <v>1220.512663833445</v>
+        <v>1220.512663833446</v>
       </c>
       <c r="N13" t="n">
-        <v>1630.202577578475</v>
+        <v>1630.202577578476</v>
       </c>
       <c r="O13" t="n">
-        <v>1992.601227641581</v>
+        <v>1992.601227641582</v>
       </c>
       <c r="P13" t="n">
-        <v>2279.175196843081</v>
+        <v>2279.175196843083</v>
       </c>
       <c r="Q13" t="n">
-        <v>2394.149078670624</v>
+        <v>2394.149078670626</v>
       </c>
       <c r="R13" t="n">
-        <v>2394.149078670624</v>
+        <v>2324.788981789186</v>
       </c>
       <c r="S13" t="n">
-        <v>2210.397218114939</v>
+        <v>2141.037121233502</v>
       </c>
       <c r="T13" t="n">
-        <v>1990.575824958967</v>
+        <v>1921.21572807753</v>
       </c>
       <c r="U13" t="n">
-        <v>1701.497790709391</v>
+        <v>1632.137693827954</v>
       </c>
       <c r="V13" t="n">
-        <v>1446.813302503504</v>
+        <v>1377.453205622067</v>
       </c>
       <c r="W13" t="n">
-        <v>1157.396132466544</v>
+        <v>1088.036035585106</v>
       </c>
       <c r="X13" t="n">
-        <v>929.4065815685262</v>
+        <v>860.0464846870891</v>
       </c>
       <c r="Y13" t="n">
-        <v>708.6140024249961</v>
+        <v>639.253905543559</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2174.577403197356</v>
+        <v>2174.577403197361</v>
       </c>
       <c r="C14" t="n">
-        <v>1805.614886256944</v>
+        <v>1805.614886256949</v>
       </c>
       <c r="D14" t="n">
-        <v>1447.349187650193</v>
+        <v>1447.349187650198</v>
       </c>
       <c r="E14" t="n">
-        <v>1061.560935051949</v>
+        <v>1206.116664414299</v>
       </c>
       <c r="F14" t="n">
-        <v>650.5750302623414</v>
+        <v>795.1307596246918</v>
       </c>
       <c r="G14" t="n">
-        <v>381.0732442178514</v>
+        <v>381.0732442178513</v>
       </c>
       <c r="H14" t="n">
-        <v>93.88384431624252</v>
+        <v>93.8838443162425</v>
       </c>
       <c r="I14" t="n">
-        <v>91.015217434264</v>
+        <v>91.01521743426412</v>
       </c>
       <c r="J14" t="n">
-        <v>364.3214542453563</v>
+        <v>364.3214542453566</v>
       </c>
       <c r="K14" t="n">
-        <v>824.6751741380021</v>
+        <v>824.6751741380026</v>
       </c>
       <c r="L14" t="n">
-        <v>1432.68643278325</v>
+        <v>1432.686432783252</v>
       </c>
       <c r="M14" t="n">
-        <v>2140.885546697687</v>
+        <v>2140.885546697689</v>
       </c>
       <c r="N14" t="n">
-        <v>2865.157871053471</v>
+        <v>2865.157871053474</v>
       </c>
       <c r="O14" t="n">
-        <v>3535.732427750065</v>
+        <v>3535.732427750069</v>
       </c>
       <c r="P14" t="n">
-        <v>4073.551296740973</v>
+        <v>4073.551296740978</v>
       </c>
       <c r="Q14" t="n">
-        <v>4429.258122740103</v>
+        <v>4429.258122740109</v>
       </c>
       <c r="R14" t="n">
-        <v>4550.7608717132</v>
+        <v>4550.760871713205</v>
       </c>
       <c r="S14" t="n">
-        <v>4463.598028814059</v>
+        <v>4463.598028814064</v>
       </c>
       <c r="T14" t="n">
-        <v>4262.063158058364</v>
+        <v>4262.063158058369</v>
       </c>
       <c r="U14" t="n">
-        <v>4008.613876112054</v>
+        <v>4008.613876112059</v>
       </c>
       <c r="V14" t="n">
-        <v>3677.550988768483</v>
+        <v>3677.550988768488</v>
       </c>
       <c r="W14" t="n">
-        <v>3324.782333498369</v>
+        <v>3324.782333498374</v>
       </c>
       <c r="X14" t="n">
-        <v>2951.316575237289</v>
+        <v>2951.316575237294</v>
       </c>
       <c r="Y14" t="n">
-        <v>2561.177243261477</v>
+        <v>2561.177243261483</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>176.5830980455862</v>
       </c>
       <c r="H15" t="n">
-        <v>91.32580718316498</v>
+        <v>91.32580718316504</v>
       </c>
       <c r="I15" t="n">
-        <v>91.015217434264</v>
+        <v>91.0152174342641</v>
       </c>
       <c r="J15" t="n">
-        <v>91.015217434264</v>
+        <v>234.9766927867951</v>
       </c>
       <c r="K15" t="n">
-        <v>91.015217434264</v>
+        <v>559.1846087356244</v>
       </c>
       <c r="L15" t="n">
-        <v>573.2753113244805</v>
+        <v>1041.444702625841</v>
       </c>
       <c r="M15" t="n">
-        <v>1155.406962327528</v>
+        <v>1623.576353628889</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.354550861585</v>
+        <v>1623.576353628889</v>
       </c>
       <c r="O15" t="n">
-        <v>2304.947245506009</v>
+        <v>2161.169048273314</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.616704538909</v>
+        <v>2294.1327018703</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.616704538909</v>
+        <v>2519.713144777804</v>
       </c>
       <c r="R15" t="n">
         <v>2552.616704538909</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>799.8930120263732</v>
+        <v>704.8710808548102</v>
       </c>
       <c r="C16" t="n">
-        <v>630.9568290984662</v>
+        <v>535.9348979269033</v>
       </c>
       <c r="D16" t="n">
-        <v>630.9568290984662</v>
+        <v>385.8182585145676</v>
       </c>
       <c r="E16" t="n">
-        <v>630.9568290984662</v>
+        <v>237.9051649321744</v>
       </c>
       <c r="F16" t="n">
-        <v>484.0668816005559</v>
+        <v>91.0152174342641</v>
       </c>
       <c r="G16" t="n">
-        <v>316.8193097629241</v>
+        <v>91.0152174342641</v>
       </c>
       <c r="H16" t="n">
-        <v>174.6498408200642</v>
+        <v>91.0152174342641</v>
       </c>
       <c r="I16" t="n">
-        <v>91.015217434264</v>
+        <v>91.0152174342641</v>
       </c>
       <c r="J16" t="n">
-        <v>167.6845446803198</v>
+        <v>167.6845446803201</v>
       </c>
       <c r="K16" t="n">
-        <v>423.5126379458678</v>
+        <v>423.5126379458684</v>
       </c>
       <c r="L16" t="n">
-        <v>806.4109533989688</v>
+        <v>806.4109533989696</v>
       </c>
       <c r="M16" t="n">
-        <v>1220.512663833445</v>
+        <v>1220.512663833446</v>
       </c>
       <c r="N16" t="n">
-        <v>1630.202577578475</v>
+        <v>1630.202577578476</v>
       </c>
       <c r="O16" t="n">
-        <v>1992.601227641581</v>
+        <v>1992.601227641583</v>
       </c>
       <c r="P16" t="n">
-        <v>2279.175196843081</v>
+        <v>2279.175196843083</v>
       </c>
       <c r="Q16" t="n">
-        <v>2394.149078670624</v>
+        <v>2394.149078670626</v>
       </c>
       <c r="R16" t="n">
-        <v>2394.149078670624</v>
+        <v>2324.788981789186</v>
       </c>
       <c r="S16" t="n">
-        <v>2210.397218114939</v>
+        <v>2141.037121233502</v>
       </c>
       <c r="T16" t="n">
-        <v>1990.575824958967</v>
+        <v>1921.215728077529</v>
       </c>
       <c r="U16" t="n">
-        <v>1701.497790709391</v>
+        <v>1632.137693827954</v>
       </c>
       <c r="V16" t="n">
-        <v>1446.813302503504</v>
+        <v>1377.453205622067</v>
       </c>
       <c r="W16" t="n">
-        <v>1157.396132466544</v>
+        <v>1114.509096583068</v>
       </c>
       <c r="X16" t="n">
-        <v>1157.396132466544</v>
+        <v>886.5195456850499</v>
       </c>
       <c r="Y16" t="n">
-        <v>981.5414768566129</v>
+        <v>886.5195456850499</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2174.577403197354</v>
+        <v>2174.57740319736</v>
       </c>
       <c r="C17" t="n">
-        <v>1805.614886256943</v>
+        <v>1950.170615619294</v>
       </c>
       <c r="D17" t="n">
-        <v>1447.349187650193</v>
+        <v>1591.904917012544</v>
       </c>
       <c r="E17" t="n">
-        <v>1061.560935051948</v>
+        <v>1206.116664414299</v>
       </c>
       <c r="F17" t="n">
-        <v>650.5750302623408</v>
+        <v>795.1307596246918</v>
       </c>
       <c r="G17" t="n">
-        <v>378.2046173358729</v>
+        <v>381.0732442178513</v>
       </c>
       <c r="H17" t="n">
-        <v>91.015217434264</v>
+        <v>93.88384431624252</v>
       </c>
       <c r="I17" t="n">
-        <v>91.015217434264</v>
+        <v>91.01521743426409</v>
       </c>
       <c r="J17" t="n">
         <v>364.3214542453561</v>
       </c>
       <c r="K17" t="n">
-        <v>824.6751741380026</v>
+        <v>824.6751741380021</v>
       </c>
       <c r="L17" t="n">
-        <v>1432.68643278325</v>
+        <v>1432.686432783251</v>
       </c>
       <c r="M17" t="n">
-        <v>2140.885546697687</v>
+        <v>2140.885546697689</v>
       </c>
       <c r="N17" t="n">
-        <v>2865.157871053471</v>
+        <v>2865.157871053473</v>
       </c>
       <c r="O17" t="n">
-        <v>3535.732427750066</v>
+        <v>3535.732427750068</v>
       </c>
       <c r="P17" t="n">
-        <v>4073.551296740974</v>
+        <v>4073.551296740977</v>
       </c>
       <c r="Q17" t="n">
-        <v>4429.258122740104</v>
+        <v>4429.258122740108</v>
       </c>
       <c r="R17" t="n">
-        <v>4550.7608717132</v>
+        <v>4550.760871713204</v>
       </c>
       <c r="S17" t="n">
-        <v>4463.598028814058</v>
+        <v>4463.598028814063</v>
       </c>
       <c r="T17" t="n">
-        <v>4262.063158058363</v>
+        <v>4262.063158058369</v>
       </c>
       <c r="U17" t="n">
-        <v>4008.613876112053</v>
+        <v>4008.613876112058</v>
       </c>
       <c r="V17" t="n">
-        <v>3677.550988768482</v>
+        <v>3677.550988768488</v>
       </c>
       <c r="W17" t="n">
-        <v>3324.782333498368</v>
+        <v>3324.782333498373</v>
       </c>
       <c r="X17" t="n">
-        <v>2951.316575237288</v>
+        <v>2951.316575237293</v>
       </c>
       <c r="Y17" t="n">
-        <v>2561.177243261476</v>
+        <v>2561.177243261482</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.5830980455862</v>
       </c>
       <c r="H18" t="n">
-        <v>91.325807183165</v>
+        <v>91.32580718316503</v>
       </c>
       <c r="I18" t="n">
-        <v>91.015217434264</v>
+        <v>91.01521743426409</v>
       </c>
       <c r="J18" t="n">
-        <v>150.3283014707366</v>
+        <v>91.01521743426409</v>
       </c>
       <c r="K18" t="n">
-        <v>150.3283014707366</v>
+        <v>415.2231333830935</v>
       </c>
       <c r="L18" t="n">
-        <v>150.3283014707366</v>
+        <v>897.4832272733101</v>
       </c>
       <c r="M18" t="n">
-        <v>732.459952473784</v>
+        <v>1479.614878276358</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.407541007841</v>
+        <v>1569.987983915343</v>
       </c>
       <c r="O18" t="n">
-        <v>1882.000235652265</v>
+        <v>2107.580678559767</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.132701870301</v>
+        <v>2519.713144777804</v>
       </c>
       <c r="Q18" t="n">
-        <v>2519.713144777805</v>
+        <v>2519.713144777804</v>
       </c>
       <c r="R18" t="n">
         <v>2552.616704538909</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.6454401887415</v>
+        <v>722.0020132801062</v>
       </c>
       <c r="C19" t="n">
-        <v>463.7092572608346</v>
+        <v>553.0658303521993</v>
       </c>
       <c r="D19" t="n">
-        <v>463.7092572608346</v>
+        <v>553.0658303521993</v>
       </c>
       <c r="E19" t="n">
-        <v>463.7092572608348</v>
+        <v>405.1527367698062</v>
       </c>
       <c r="F19" t="n">
-        <v>316.8193097629244</v>
+        <v>258.2627892718958</v>
       </c>
       <c r="G19" t="n">
-        <v>316.8193097629244</v>
+        <v>91.01521743426409</v>
       </c>
       <c r="H19" t="n">
-        <v>174.6498408200642</v>
+        <v>91.01521743426409</v>
       </c>
       <c r="I19" t="n">
-        <v>91.015217434264</v>
+        <v>91.01521743426409</v>
       </c>
       <c r="J19" t="n">
-        <v>167.6845446803197</v>
+        <v>167.6845446803199</v>
       </c>
       <c r="K19" t="n">
-        <v>423.5126379458677</v>
+        <v>423.5126379458682</v>
       </c>
       <c r="L19" t="n">
-        <v>806.4109533989686</v>
+        <v>806.4109533989694</v>
       </c>
       <c r="M19" t="n">
-        <v>1220.512663833445</v>
+        <v>1220.512663833446</v>
       </c>
       <c r="N19" t="n">
-        <v>1630.202577578475</v>
+        <v>1630.202577578476</v>
       </c>
       <c r="O19" t="n">
-        <v>1992.601227641581</v>
+        <v>1992.601227641582</v>
       </c>
       <c r="P19" t="n">
-        <v>2279.17519684308</v>
+        <v>2279.175196843082</v>
       </c>
       <c r="Q19" t="n">
-        <v>2394.149078670624</v>
+        <v>2394.149078670625</v>
       </c>
       <c r="R19" t="n">
-        <v>2324.788981789184</v>
+        <v>2324.788981789186</v>
       </c>
       <c r="S19" t="n">
-        <v>2141.037121233499</v>
+        <v>2141.037121233501</v>
       </c>
       <c r="T19" t="n">
-        <v>1921.215728077527</v>
+        <v>1921.215728077529</v>
       </c>
       <c r="U19" t="n">
-        <v>1632.137693827952</v>
+        <v>1632.137693827953</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.493205097489</v>
+        <v>1377.453205622066</v>
       </c>
       <c r="W19" t="n">
-        <v>1263.076035060529</v>
+        <v>1352.432608151893</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.086484162511</v>
+        <v>1124.443057253876</v>
       </c>
       <c r="Y19" t="n">
-        <v>814.2939050189813</v>
+        <v>903.6504781103459</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2316.264505677726</v>
+        <v>2174.57740319736</v>
       </c>
       <c r="C20" t="n">
-        <v>1947.301988737315</v>
+        <v>1805.614886256948</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.036290130565</v>
+        <v>1447.349187650197</v>
       </c>
       <c r="E20" t="n">
-        <v>1203.248037532321</v>
+        <v>1061.560935051953</v>
       </c>
       <c r="F20" t="n">
-        <v>792.2621327427132</v>
+        <v>795.1307596246917</v>
       </c>
       <c r="G20" t="n">
-        <v>378.2046173358729</v>
+        <v>381.0732442178511</v>
       </c>
       <c r="H20" t="n">
-        <v>91.015217434264</v>
+        <v>93.88384431624249</v>
       </c>
       <c r="I20" t="n">
-        <v>91.015217434264</v>
+        <v>91.01521743426409</v>
       </c>
       <c r="J20" t="n">
         <v>364.3214542453561</v>
       </c>
       <c r="K20" t="n">
-        <v>824.6751741380021</v>
+        <v>824.6751741380035</v>
       </c>
       <c r="L20" t="n">
-        <v>1432.68643278325</v>
+        <v>1432.686432783253</v>
       </c>
       <c r="M20" t="n">
-        <v>2140.885546697687</v>
+        <v>2140.885546697691</v>
       </c>
       <c r="N20" t="n">
-        <v>2865.157871053471</v>
+        <v>2865.157871053476</v>
       </c>
       <c r="O20" t="n">
-        <v>3535.732427750066</v>
+        <v>3535.73242775007</v>
       </c>
       <c r="P20" t="n">
-        <v>4073.551296740973</v>
+        <v>4073.551296740978</v>
       </c>
       <c r="Q20" t="n">
-        <v>4429.258122740104</v>
+        <v>4429.258122740109</v>
       </c>
       <c r="R20" t="n">
-        <v>4550.7608717132</v>
+        <v>4550.760871713204</v>
       </c>
       <c r="S20" t="n">
-        <v>4550.7608717132</v>
+        <v>4463.598028814063</v>
       </c>
       <c r="T20" t="n">
-        <v>4403.750260538736</v>
+        <v>4262.063158058369</v>
       </c>
       <c r="U20" t="n">
-        <v>4150.300978592425</v>
+        <v>4008.613876112058</v>
       </c>
       <c r="V20" t="n">
-        <v>3819.238091248854</v>
+        <v>3677.550988768488</v>
       </c>
       <c r="W20" t="n">
-        <v>3466.46943597874</v>
+        <v>3324.782333498373</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.00367771766</v>
+        <v>2951.316575237293</v>
       </c>
       <c r="Y20" t="n">
-        <v>2702.864345741848</v>
+        <v>2561.177243261482</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.5830980455862</v>
       </c>
       <c r="H21" t="n">
-        <v>91.325807183165</v>
+        <v>91.32580718316503</v>
       </c>
       <c r="I21" t="n">
-        <v>91.015217434264</v>
+        <v>91.01521743426409</v>
       </c>
       <c r="J21" t="n">
-        <v>91.015217434264</v>
+        <v>234.976692786795</v>
       </c>
       <c r="K21" t="n">
-        <v>415.223133383093</v>
+        <v>559.1846087356244</v>
       </c>
       <c r="L21" t="n">
-        <v>897.4832272733094</v>
+        <v>1041.444702625841</v>
       </c>
       <c r="M21" t="n">
-        <v>897.4832272733094</v>
+        <v>1041.444702625841</v>
       </c>
       <c r="N21" t="n">
-        <v>1509.430815807366</v>
+        <v>1653.392291159898</v>
       </c>
       <c r="O21" t="n">
-        <v>2047.02351045179</v>
+        <v>2190.984985804323</v>
       </c>
       <c r="P21" t="n">
-        <v>2459.155976669826</v>
+        <v>2519.713144777804</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.616704538909</v>
+        <v>2519.713144777804</v>
       </c>
       <c r="R21" t="n">
         <v>2552.616704538909</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.1197039407984</v>
+        <v>457.6054407133189</v>
       </c>
       <c r="C22" t="n">
-        <v>634.1835210128917</v>
+        <v>288.669257785412</v>
       </c>
       <c r="D22" t="n">
-        <v>484.066881600556</v>
+        <v>288.669257785412</v>
       </c>
       <c r="E22" t="n">
-        <v>484.066881600556</v>
+        <v>140.7561642030189</v>
       </c>
       <c r="F22" t="n">
-        <v>484.066881600556</v>
+        <v>140.7561642030189</v>
       </c>
       <c r="G22" t="n">
-        <v>316.8193097629243</v>
+        <v>91.01521743426409</v>
       </c>
       <c r="H22" t="n">
-        <v>174.6498408200642</v>
+        <v>91.01521743426409</v>
       </c>
       <c r="I22" t="n">
-        <v>91.015217434264</v>
+        <v>91.01521743426409</v>
       </c>
       <c r="J22" t="n">
-        <v>167.6845446803197</v>
+        <v>167.6845446803199</v>
       </c>
       <c r="K22" t="n">
-        <v>423.5126379458677</v>
+        <v>423.5126379458682</v>
       </c>
       <c r="L22" t="n">
-        <v>806.4109533989686</v>
+        <v>806.4109533989694</v>
       </c>
       <c r="M22" t="n">
-        <v>1220.512663833445</v>
+        <v>1220.512663833446</v>
       </c>
       <c r="N22" t="n">
-        <v>1630.202577578475</v>
+        <v>1630.202577578476</v>
       </c>
       <c r="O22" t="n">
-        <v>1992.601227641581</v>
+        <v>1992.601227641582</v>
       </c>
       <c r="P22" t="n">
-        <v>2279.17519684308</v>
+        <v>2279.175196843082</v>
       </c>
       <c r="Q22" t="n">
-        <v>2394.149078670624</v>
+        <v>2394.149078670625</v>
       </c>
       <c r="R22" t="n">
-        <v>2324.788981789184</v>
+        <v>2324.788981789186</v>
       </c>
       <c r="S22" t="n">
-        <v>2141.037121233499</v>
+        <v>2141.037121233501</v>
       </c>
       <c r="T22" t="n">
-        <v>1921.215728077528</v>
+        <v>1921.215728077529</v>
       </c>
       <c r="U22" t="n">
-        <v>1921.215728077528</v>
+        <v>1632.137693827954</v>
       </c>
       <c r="V22" t="n">
-        <v>1666.531239871641</v>
+        <v>1377.453205622067</v>
       </c>
       <c r="W22" t="n">
-        <v>1377.11406983468</v>
+        <v>1088.036035585106</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.560747914568</v>
+        <v>860.0464846870888</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.7681687710382</v>
+        <v>639.2539055435586</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5975,7 +5975,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
         <v>380.2757138127629</v>
@@ -5990,13 +5990,13 @@
         <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N23" t="n">
         <v>2971.58344915112</v>
@@ -6014,25 +6014,25 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K24" t="n">
-        <v>208.6365868072512</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L24" t="n">
-        <v>699.3689196510026</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M24" t="n">
-        <v>699.3689196510026</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N24" t="n">
-        <v>1321.464883050339</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O24" t="n">
         <v>1868.341358050533</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>634.1780811394055</v>
+        <v>723.0852658456178</v>
       </c>
       <c r="C25" t="n">
-        <v>465.2418982114987</v>
+        <v>554.1490829177109</v>
       </c>
       <c r="D25" t="n">
-        <v>465.2418982114987</v>
+        <v>404.0324435053751</v>
       </c>
       <c r="E25" t="n">
-        <v>465.2418982114987</v>
+        <v>256.1193499229815</v>
       </c>
       <c r="F25" t="n">
-        <v>318.3519507135884</v>
+        <v>256.1193499229815</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135884</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H25" t="n">
         <v>176.4792337520202</v>
@@ -6145,7 +6145,7 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K25" t="n">
         <v>432.4591980117247</v>
@@ -6178,19 +6178,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1808.71033425404</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1554.025846048153</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1264.608676011193</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X25" t="n">
-        <v>1036.619125113175</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="Y25" t="n">
-        <v>815.8265459696453</v>
+        <v>904.7337306758575</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963559</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127623</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160703</v>
@@ -6257,19 +6257,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
         <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160703</v>
+        <v>238.7141959544597</v>
       </c>
       <c r="K27" t="n">
-        <v>93.84834815160703</v>
+        <v>238.7141959544597</v>
       </c>
       <c r="L27" t="n">
-        <v>584.5806809953584</v>
+        <v>729.446528798211</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.599035247486</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N27" t="n">
-        <v>1798.694998646823</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.571473647017</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P27" t="n">
-        <v>2345.571473647017</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>654.5023284669178</v>
+        <v>727.005312815181</v>
       </c>
       <c r="C28" t="n">
-        <v>485.5661455390109</v>
+        <v>558.0691298872741</v>
       </c>
       <c r="D28" t="n">
-        <v>485.5661455390109</v>
+        <v>407.9524904749384</v>
       </c>
       <c r="E28" t="n">
-        <v>485.5661455390109</v>
+        <v>407.9524904749384</v>
       </c>
       <c r="F28" t="n">
-        <v>485.5661455390109</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
@@ -6385,7 +6385,7 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
         <v>820.2210160948589</v>
@@ -6400,34 +6400,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R28" t="n">
         <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033126</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747508</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062235</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856348</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.526309819388</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213702</v>
+        <v>1129.446356788951</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.74417977784</v>
+        <v>908.6537776454207</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6449,10 +6449,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H29" t="n">
         <v>93.84834815160703</v>
@@ -6476,7 +6476,7 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P29" t="n">
         <v>4202.751434297606</v>
@@ -6497,16 +6497,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W29" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>424.3570907149658</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L30" t="n">
-        <v>915.0894235587172</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M30" t="n">
-        <v>915.0894235587172</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="N30" t="n">
-        <v>1537.185386958053</v>
+        <v>1354.324626146541</v>
       </c>
       <c r="O30" t="n">
-        <v>2084.061861958248</v>
+        <v>1901.201101146735</v>
       </c>
       <c r="P30" t="n">
-        <v>2503.645380384324</v>
+        <v>2320.784619572811</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>852.3722300260595</v>
+        <v>678.2659052086694</v>
       </c>
       <c r="C31" t="n">
-        <v>683.4360470981526</v>
+        <v>509.3297222807626</v>
       </c>
       <c r="D31" t="n">
-        <v>533.3194076858168</v>
+        <v>359.213082868427</v>
       </c>
       <c r="E31" t="n">
-        <v>485.5661455390109</v>
+        <v>359.213082868427</v>
       </c>
       <c r="F31" t="n">
-        <v>485.5661455390109</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
@@ -6634,37 +6634,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074625</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.563526789007</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U31" t="n">
-        <v>1737.487313103734</v>
+        <v>1852.798158323304</v>
       </c>
       <c r="V31" t="n">
-        <v>1482.802824897847</v>
+        <v>1598.113670117417</v>
       </c>
       <c r="W31" t="n">
-        <v>1482.802824897847</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X31" t="n">
-        <v>1254.813273999829</v>
+        <v>1080.706949182439</v>
       </c>
       <c r="Y31" t="n">
-        <v>1034.020694856299</v>
+        <v>859.9143700389092</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D32" t="n">
         <v>1591.032978284208</v>
@@ -6686,10 +6686,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H32" t="n">
         <v>93.84834815160703</v>
@@ -6716,10 +6716,10 @@
         <v>3603.64596425946</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
@@ -6731,19 +6731,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U32" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W32" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X32" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K33" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L33" t="n">
-        <v>915.0894235587172</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M33" t="n">
-        <v>915.0894235587172</v>
+        <v>1154.278642310989</v>
       </c>
       <c r="N33" t="n">
-        <v>1537.185386958053</v>
+        <v>1776.374605710325</v>
       </c>
       <c r="O33" t="n">
-        <v>2084.061861958248</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="P33" t="n">
-        <v>2503.645380384324</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695766</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.9184063975744</v>
+        <v>580.1153653172707</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9822234696675</v>
+        <v>411.1791823893639</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8655840573317</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9524904749386</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F34" t="n">
         <v>261.0625429770282</v>
@@ -6859,7 +6859,7 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
         <v>820.2210160948589</v>
@@ -6880,28 +6880,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1193.385654860886</v>
+        <v>1210.545960189058</v>
       </c>
       <c r="X34" t="n">
-        <v>1095.710985541104</v>
+        <v>982.5564092910406</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.9184063975744</v>
+        <v>761.7638301475105</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D35" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F35" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200314</v>
       </c>
       <c r="G35" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H35" t="n">
         <v>92.81162322608054</v>
@@ -6956,7 +6956,7 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q35" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R35" t="n">
         <v>4640.581161304027</v>
@@ -6968,19 +6968,19 @@
         <v>4353.904749750194</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X35" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y35" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>92.81162322608054</v>
       </c>
       <c r="I36" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J36" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K36" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L36" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M36" t="n">
-        <v>1653.719034637164</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N36" t="n">
-        <v>1653.719034637164</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O36" t="n">
-        <v>2200.595509637359</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P36" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q36" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R36" t="n">
         <v>2552.77562977024</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>873.8816814720478</v>
+        <v>575.851948477319</v>
       </c>
       <c r="C37" t="n">
-        <v>704.9454985441409</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="D37" t="n">
-        <v>554.8288591318051</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="E37" t="n">
         <v>406.9157655494121</v>
@@ -7093,13 +7093,13 @@
         <v>92.81162322608054</v>
       </c>
       <c r="J37" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K37" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L37" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M37" t="n">
         <v>1238.413883213792</v>
@@ -7117,28 +7117,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R37" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S37" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T37" t="n">
-        <v>2245.205584149098</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.129370463825</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V37" t="n">
-        <v>1793.729446380795</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W37" t="n">
-        <v>1504.312276343835</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X37" t="n">
-        <v>1276.322725445818</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y37" t="n">
-        <v>1055.530146302287</v>
+        <v>757.5004133075587</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D38" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F38" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200319</v>
       </c>
       <c r="G38" t="n">
-        <v>379.2389888872364</v>
+        <v>328.4394675364376</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608051</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I38" t="n">
         <v>92.81162322608054</v>
@@ -7184,10 +7184,10 @@
         <v>2182.462224957688</v>
       </c>
       <c r="N38" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P38" t="n">
         <v>4150.915188021282</v>
@@ -7199,25 +7199,25 @@
         <v>4640.581161304027</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X38" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y38" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>92.81162322608054</v>
       </c>
       <c r="I39" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J39" t="n">
-        <v>240.4596049779265</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="K39" t="n">
-        <v>570.9683475412853</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="L39" t="n">
-        <v>1061.700680385037</v>
+        <v>915.0917312077133</v>
       </c>
       <c r="M39" t="n">
-        <v>1653.719034637164</v>
+        <v>915.0917312077133</v>
       </c>
       <c r="N39" t="n">
-        <v>1653.719034637164</v>
+        <v>1537.18769460705</v>
       </c>
       <c r="O39" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q39" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R39" t="n">
         <v>2552.77562977024</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.4656035413909</v>
+        <v>675.7074548523129</v>
       </c>
       <c r="C40" t="n">
-        <v>484.529420613484</v>
+        <v>506.7712719244065</v>
       </c>
       <c r="D40" t="n">
-        <v>484.529420613484</v>
+        <v>356.6546325120707</v>
       </c>
       <c r="E40" t="n">
-        <v>484.529420613484</v>
+        <v>208.7415389296776</v>
       </c>
       <c r="F40" t="n">
-        <v>484.529420613484</v>
+        <v>208.7415389296776</v>
       </c>
       <c r="G40" t="n">
-        <v>317.3152257880632</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H40" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I40" t="n">
         <v>92.81162322608054</v>
       </c>
       <c r="J40" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K40" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L40" t="n">
-        <v>819.1842911693327</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M40" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N40" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O40" t="n">
         <v>2020.132206020528</v>
@@ -7357,25 +7357,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S40" t="n">
-        <v>2177.3462391076</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T40" t="n">
         <v>1957.667456821981</v>
       </c>
       <c r="U40" t="n">
-        <v>1827.997856656026</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.313368450139</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W40" t="n">
-        <v>1283.896198413178</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X40" t="n">
-        <v>1055.906647515161</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.1140683716307</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D41" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F41" t="n">
         <v>793.22209597083</v>
@@ -7403,16 +7403,16 @@
         <v>379.2389888872364</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I41" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L41" t="n">
         <v>1461.45766301865</v>
@@ -7430,31 +7430,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S41" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T41" t="n">
-        <v>4353.904749750196</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X41" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y41" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F42" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G42" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I42" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J42" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K42" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L42" t="n">
-        <v>583.5439560698319</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="M42" t="n">
-        <v>1175.56231032196</v>
+        <v>1162.986701793413</v>
       </c>
       <c r="N42" t="n">
-        <v>1797.658273721296</v>
+        <v>1785.082665192749</v>
       </c>
       <c r="O42" t="n">
-        <v>2344.53474872149</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.53474872149</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R42" t="n">
         <v>2552.77562977024</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>873.8816814720478</v>
+        <v>494.0589900220725</v>
       </c>
       <c r="C43" t="n">
-        <v>704.9454985441409</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D43" t="n">
-        <v>554.8288591318052</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="E43" t="n">
-        <v>406.9157655494121</v>
+        <v>177.2097135117731</v>
       </c>
       <c r="F43" t="n">
-        <v>260.0258180515017</v>
+        <v>177.2097135117731</v>
       </c>
       <c r="G43" t="n">
-        <v>92.81162322608056</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="H43" t="n">
-        <v>92.81162322608056</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J43" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K43" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861977</v>
       </c>
       <c r="L43" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693319</v>
       </c>
       <c r="M43" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N43" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O43" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P43" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q43" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R43" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S43" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T43" t="n">
-        <v>2337.490148271956</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U43" t="n">
-        <v>2048.413934586682</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V43" t="n">
-        <v>1793.729446380796</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W43" t="n">
-        <v>1504.312276343835</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X43" t="n">
-        <v>1276.322725445818</v>
+        <v>896.5000339958424</v>
       </c>
       <c r="Y43" t="n">
-        <v>1055.530146302287</v>
+        <v>675.7074548523123</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2266.424947555045</v>
+        <v>2266.424947555047</v>
       </c>
       <c r="C44" t="n">
-        <v>1897.462430614633</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D44" t="n">
-        <v>1539.196732007883</v>
+        <v>1539.196732007885</v>
       </c>
       <c r="E44" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F44" t="n">
-        <v>742.4225746200309</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G44" t="n">
-        <v>328.4394675364373</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H44" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L44" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O44" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P44" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q44" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R44" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S44" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T44" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U44" t="n">
-        <v>4100.461420469744</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V44" t="n">
-        <v>3769.398533126173</v>
+        <v>3769.398533126175</v>
       </c>
       <c r="W44" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.62987785606</v>
       </c>
       <c r="X44" t="n">
-        <v>3043.164119594979</v>
+        <v>3043.164119594981</v>
       </c>
       <c r="Y44" t="n">
-        <v>2653.024787619167</v>
+        <v>2653.024787619169</v>
       </c>
     </row>
     <row r="45">
@@ -7713,28 +7713,28 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F45" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G45" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H45" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I45" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J45" t="n">
-        <v>106.3138404733484</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K45" t="n">
-        <v>106.3138404733484</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L45" t="n">
-        <v>106.3138404733484</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M45" t="n">
-        <v>698.3321947254761</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="N45" t="n">
         <v>1320.428158124812</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.385284034031</v>
+        <v>701.6502561102859</v>
       </c>
       <c r="C46" t="n">
-        <v>929.4491011061236</v>
+        <v>532.714073182379</v>
       </c>
       <c r="D46" t="n">
-        <v>779.3324616937879</v>
+        <v>382.5974337700433</v>
       </c>
       <c r="E46" t="n">
-        <v>631.4193681113948</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="F46" t="n">
-        <v>484.5294206134844</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G46" t="n">
-        <v>317.3152257880632</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H46" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I46" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J46" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156347</v>
       </c>
       <c r="K46" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L46" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M46" t="n">
         <v>1238.413883213792</v>
@@ -7825,31 +7825,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R46" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S46" t="n">
-        <v>2428.375774410167</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T46" t="n">
-        <v>2428.375774410167</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U46" t="n">
-        <v>2272.917537148665</v>
+        <v>1876.182509224921</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.233048942778</v>
+        <v>1621.498021019034</v>
       </c>
       <c r="W46" t="n">
-        <v>1728.815878905818</v>
+        <v>1332.080850982073</v>
       </c>
       <c r="X46" t="n">
-        <v>1500.8263280078</v>
+        <v>1104.091300084056</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.03374886427</v>
+        <v>883.2987209405256</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>133.2703430754743</v>
+        <v>133.2703430754759</v>
       </c>
       <c r="K2" t="n">
-        <v>148.4866689663095</v>
+        <v>148.4866689663119</v>
       </c>
       <c r="L2" t="n">
-        <v>146.9363360149259</v>
+        <v>146.9363360149289</v>
       </c>
       <c r="M2" t="n">
-        <v>131.5056546659375</v>
+        <v>131.5056546659408</v>
       </c>
       <c r="N2" t="n">
-        <v>128.9731411394898</v>
+        <v>128.9731411394932</v>
       </c>
       <c r="O2" t="n">
-        <v>135.2556407863266</v>
+        <v>135.2556407863298</v>
       </c>
       <c r="P2" t="n">
-        <v>150.2870559784116</v>
+        <v>150.2870559784143</v>
       </c>
       <c r="Q2" t="n">
-        <v>161.518660178406</v>
+        <v>161.5186601784081</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>98.38282956168655</v>
+        <v>98.38282956168752</v>
       </c>
       <c r="K3" t="n">
-        <v>89.2076585085471</v>
+        <v>89.20765850854875</v>
       </c>
       <c r="L3" t="n">
-        <v>73.16026016230572</v>
+        <v>73.16026016230794</v>
       </c>
       <c r="M3" t="n">
-        <v>65.8221807696715</v>
+        <v>65.82218076967409</v>
       </c>
       <c r="N3" t="n">
-        <v>53.01011125104986</v>
+        <v>53.01011125105252</v>
       </c>
       <c r="O3" t="n">
-        <v>70.93813300329231</v>
+        <v>70.93813300329474</v>
       </c>
       <c r="P3" t="n">
-        <v>76.46245549210632</v>
+        <v>76.46245549210826</v>
       </c>
       <c r="Q3" t="n">
-        <v>101.5365572927741</v>
+        <v>101.5365572927754</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>99.67755405602216</v>
+        <v>99.67755405602315</v>
       </c>
       <c r="L4" t="n">
-        <v>97.34507494409044</v>
+        <v>97.34507494409172</v>
       </c>
       <c r="M4" t="n">
-        <v>99.34553777807832</v>
+        <v>99.34553777807967</v>
       </c>
       <c r="N4" t="n">
-        <v>89.04642808341774</v>
+        <v>89.04642808341904</v>
       </c>
       <c r="O4" t="n">
-        <v>102.767060551025</v>
+        <v>102.7670605510262</v>
       </c>
       <c r="P4" t="n">
-        <v>107.1894901571692</v>
+        <v>107.1894901571703</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8219,16 +8219,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8313,7 +8313,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,7 +8380,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>94.63316322227178</v>
+        <v>94.35534319230364</v>
       </c>
       <c r="K8" t="n">
         <v>80.27414188615768</v>
@@ -8462,16 +8462,16 @@
         <v>44.22156050876461</v>
       </c>
       <c r="N8" t="n">
-        <v>39.88761744738939</v>
+        <v>33.28939173564609</v>
       </c>
       <c r="O8" t="n">
-        <v>44.90418949596821</v>
+        <v>51.78023523767965</v>
       </c>
       <c r="P8" t="n">
-        <v>73.17418265679427</v>
+        <v>80.05022839850571</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.4861494999904</v>
+        <v>103.6101037582789</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>78.15150993587676</v>
+        <v>71.27546419416532</v>
       </c>
       <c r="K9" t="n">
-        <v>49.47507920956534</v>
+        <v>49.75289923953348</v>
       </c>
       <c r="L9" t="n">
         <v>10.86277524892485</v>
@@ -8547,7 +8547,7 @@
         <v>2.673277653404995</v>
       </c>
       <c r="P9" t="n">
-        <v>21.67389073786379</v>
+        <v>28.27211644960708</v>
       </c>
       <c r="Q9" t="n">
         <v>64.91185269891416</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>71.73099563173358</v>
+        <v>78.60704137344501</v>
       </c>
       <c r="L10" t="n">
-        <v>61.58310182430832</v>
+        <v>68.1813275360516</v>
       </c>
       <c r="M10" t="n">
         <v>68.51559706360761</v>
       </c>
       <c r="N10" t="n">
-        <v>59.11305144985138</v>
+        <v>52.23700570813995</v>
       </c>
       <c r="O10" t="n">
         <v>75.64364695151268</v>
       </c>
       <c r="P10" t="n">
-        <v>84.69530481439489</v>
+        <v>78.09707910265161</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>51.31264782909039</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10124,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P29" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="R35" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.73983601200585</v>
+        <v>14.73983601200587</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.35889816588482</v>
+        <v>14.3588981658848</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>143.1101720687217</v>
       </c>
       <c r="G11" t="n">
-        <v>140.2702314555685</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.839940613158745</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.99175548762986</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23431,10 +23431,10 @@
         <v>165.5750961192554</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.7477742534314</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.91047714682134</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>68.66649591262507</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>143.1101720687217</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>143.1101720687269</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5750961192554</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.7477742534314</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>82.79827715194219</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>68.66649591262504</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>26.20833038798162</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.48854429826324</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>143.1101720687226</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>140.2702314555685</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.839940613158745</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5750961192554</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.7477742534314</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>82.79827715194219</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>173.2895994806702</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>261.7526068411202</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>143.1101720687226</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.839940613158745</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>86.2912144701499</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>53.97901698541875</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>116.3315588181882</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.7477742534314</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>82.79827715194219</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1872539070798</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.87186668812672</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>86.69833786791516</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>137.6915425298876</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>157.8125473841243</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>48.25201353044599</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>99.15823312123098</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>48.25201353044645</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>84.16945386597408</v>
       </c>
       <c r="X34" t="n">
-        <v>129.0117327624534</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>50.29152613728985</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25208,7 +25208,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>50.29152613729039</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>91.36171848162866</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>80.97502887069282</v>
       </c>
     </row>
     <row r="38">
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>50.29152613729084</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.29152613729029</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>50.77143633060581</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>157.8125473841243</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>50.29152613729062</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>50.2915261372886</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7925202387403</v>
       </c>
       <c r="H43" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>127.5052245859316</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>50.29152613729104</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>132.2817966595336</v>
+        <v>205.5153534273306</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>851843.7401621706</v>
+        <v>851843.7401621715</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783724.5139670131</v>
+        <v>783724.5139670137</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>783724.5139670131</v>
+        <v>783724.5139670137</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783724.5139670131</v>
+        <v>783724.5139670136</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>783724.5139670132</v>
+        <v>783724.5139670136</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797196.7447034786</v>
+        <v>797196.7447034785</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791761.936822265</v>
+        <v>791761.9368222652</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791761.9368222652</v>
+        <v>791761.936822265</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>791761.9368222653</v>
+        <v>791761.936822265</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791761.9368222652</v>
+        <v>791761.9368222653</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634973.8878994324</v>
+        <v>634973.8878994333</v>
       </c>
       <c r="C2" t="n">
-        <v>634997.3879551599</v>
+        <v>634997.3879551601</v>
       </c>
       <c r="D2" t="n">
         <v>635855.3354508887</v>
       </c>
       <c r="E2" t="n">
-        <v>615688.1022883762</v>
+        <v>615688.1022883768</v>
       </c>
       <c r="F2" t="n">
-        <v>615688.1022883764</v>
+        <v>615688.1022883769</v>
       </c>
       <c r="G2" t="n">
-        <v>615688.1022883764</v>
+        <v>615688.1022883767</v>
       </c>
       <c r="H2" t="n">
-        <v>615688.1022883762</v>
+        <v>615688.1022883765</v>
       </c>
       <c r="I2" t="n">
         <v>625179.3072668836</v>
@@ -26338,7 +26338,7 @@
         <v>625179.3072668836</v>
       </c>
       <c r="K2" t="n">
-        <v>625179.3072668837</v>
+        <v>625179.3072668836</v>
       </c>
       <c r="L2" t="n">
         <v>625179.3072668836</v>
@@ -26347,13 +26347,13 @@
         <v>622076.823019474</v>
       </c>
       <c r="N2" t="n">
-        <v>622076.8230194742</v>
+        <v>622076.8230194739</v>
       </c>
       <c r="O2" t="n">
-        <v>622076.8230194738</v>
+        <v>622076.823019474</v>
       </c>
       <c r="P2" t="n">
-        <v>622076.8230194736</v>
+        <v>622076.8230194739</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134926.7775260411</v>
+        <v>134926.7775260365</v>
       </c>
       <c r="C3" t="n">
-        <v>86287.08768268304</v>
+        <v>86287.08768268736</v>
       </c>
       <c r="D3" t="n">
         <v>35221.70711368781</v>
       </c>
       <c r="E3" t="n">
-        <v>1194308.129726579</v>
+        <v>1194308.129726581</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23210.71931649141</v>
+        <v>23210.71931649043</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>1740.265292815518</v>
       </c>
       <c r="M3" t="n">
-        <v>278573.9649863254</v>
+        <v>278573.9649863257</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391140.3065630834</v>
+        <v>391140.3065630845</v>
       </c>
       <c r="C4" t="n">
         <v>368187.1026115649</v>
@@ -26424,7 +26424,7 @@
         <v>358961.1152399344</v>
       </c>
       <c r="E4" t="n">
-        <v>9928.921399129331</v>
+        <v>9928.921399129333</v>
       </c>
       <c r="F4" t="n">
         <v>9928.921399129331</v>
@@ -26433,10 +26433,10 @@
         <v>9928.921399129331</v>
       </c>
       <c r="H4" t="n">
-        <v>9928.921399129333</v>
+        <v>9928.921399129331</v>
       </c>
       <c r="I4" t="n">
-        <v>11478.42096839267</v>
+        <v>11478.42096839269</v>
       </c>
       <c r="J4" t="n">
         <v>11478.42096839269</v>
@@ -26445,16 +26445,16 @@
         <v>11478.42096839267</v>
       </c>
       <c r="L4" t="n">
-        <v>11478.42096839267</v>
+        <v>11478.42096839265</v>
       </c>
       <c r="M4" t="n">
-        <v>9940.611700543564</v>
+        <v>9940.611700543563</v>
       </c>
       <c r="N4" t="n">
-        <v>9940.611700543584</v>
+        <v>9940.611700543594</v>
       </c>
       <c r="O4" t="n">
-        <v>9940.611700543546</v>
+        <v>9940.611700543566</v>
       </c>
       <c r="P4" t="n">
         <v>9940.611700543546</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36680.07412609387</v>
+        <v>36680.07412609376</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26476,16 +26476,16 @@
         <v>40006.06676764524</v>
       </c>
       <c r="E5" t="n">
-        <v>98377.39735451924</v>
+        <v>98377.39735451936</v>
       </c>
       <c r="F5" t="n">
-        <v>98377.39735451926</v>
+        <v>98377.39735451934</v>
       </c>
       <c r="G5" t="n">
-        <v>98377.39735451924</v>
+        <v>98377.39735451934</v>
       </c>
       <c r="H5" t="n">
-        <v>98377.39735451924</v>
+        <v>98377.39735451934</v>
       </c>
       <c r="I5" t="n">
         <v>100930.0394572385</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72226.72968421405</v>
+        <v>72222.42812374949</v>
       </c>
       <c r="C6" t="n">
-        <v>141777.3928297653</v>
+        <v>141773.1670759236</v>
       </c>
       <c r="D6" t="n">
-        <v>201666.4463296213</v>
+        <v>201664.9881483506</v>
       </c>
       <c r="E6" t="n">
-        <v>-686926.3461918518</v>
+        <v>-686992.85996397</v>
       </c>
       <c r="F6" t="n">
-        <v>507381.7835347276</v>
+        <v>507315.2697626109</v>
       </c>
       <c r="G6" t="n">
-        <v>507381.7835347281</v>
+        <v>507315.2697626104</v>
       </c>
       <c r="H6" t="n">
-        <v>507381.7835347276</v>
+        <v>507315.2697626103</v>
       </c>
       <c r="I6" t="n">
-        <v>489560.127524761</v>
+        <v>489524.2305428977</v>
       </c>
       <c r="J6" t="n">
-        <v>512770.8468412524</v>
+        <v>512734.9498593881</v>
       </c>
       <c r="K6" t="n">
-        <v>512770.8468412525</v>
+        <v>512734.9498593881</v>
       </c>
       <c r="L6" t="n">
-        <v>511030.5815484369</v>
+        <v>510994.6845665726</v>
       </c>
       <c r="M6" t="n">
-        <v>233420.1178187667</v>
+        <v>233374.2128232008</v>
       </c>
       <c r="N6" t="n">
-        <v>511994.0828050922</v>
+        <v>511948.1778095263</v>
       </c>
       <c r="O6" t="n">
-        <v>511994.0828050919</v>
+        <v>511948.1778095264</v>
       </c>
       <c r="P6" t="n">
-        <v>511994.0828050916</v>
+        <v>511948.1778095263</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.0217489033887</v>
+        <v>140.0217489033839</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26744,16 +26744,16 @@
         <v>273.4129902086785</v>
       </c>
       <c r="E3" t="n">
-        <v>1339.71706901278</v>
+        <v>1339.717069012782</v>
       </c>
       <c r="F3" t="n">
         <v>1339.717069012781</v>
       </c>
       <c r="G3" t="n">
-        <v>1339.71706901278</v>
+        <v>1339.717069012781</v>
       </c>
       <c r="H3" t="n">
-        <v>1339.71706901278</v>
+        <v>1339.717069012781</v>
       </c>
       <c r="I3" t="n">
         <v>1358.041048716386</v>
@@ -26796,16 +26796,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>1137.6902179283</v>
+        <v>1137.690217928301</v>
       </c>
       <c r="F4" t="n">
-        <v>1137.6902179283</v>
+        <v>1137.690217928301</v>
       </c>
       <c r="G4" t="n">
-        <v>1137.6902179283</v>
+        <v>1137.690217928301</v>
       </c>
       <c r="H4" t="n">
-        <v>1137.6902179283</v>
+        <v>1137.690217928301</v>
       </c>
       <c r="I4" t="n">
         <v>1173.104351895088</v>
@@ -26829,7 +26829,7 @@
         <v>1160.145290326007</v>
       </c>
       <c r="P4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.0217489033887</v>
+        <v>140.0217489033839</v>
       </c>
       <c r="C3" t="n">
-        <v>94.75828922260553</v>
+        <v>94.75828922261027</v>
       </c>
       <c r="D3" t="n">
         <v>38.63295208268428</v>
       </c>
       <c r="E3" t="n">
-        <v>1066.304078804102</v>
+        <v>1066.304078804103</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18.32397970360535</v>
+        <v>18.32397970360444</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>1130.814172186589</v>
+        <v>1130.81417218659</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>35.41413396678786</v>
+        <v>35.41413396678672</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>6.87604574171155</v>
       </c>
       <c r="M4" t="n">
-        <v>1117.855110617508</v>
+        <v>1117.855110617509</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>1130.814172186589</v>
+        <v>1130.81417218659</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>333.7099870968452</v>
+        <v>333.7099870968454</v>
       </c>
       <c r="I2" t="n">
-        <v>188.7746293710174</v>
+        <v>188.7746293710181</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>114.50975639521</v>
+        <v>114.5097563952112</v>
       </c>
       <c r="S2" t="n">
-        <v>196.1929515836887</v>
+        <v>196.1929515836891</v>
       </c>
       <c r="T2" t="n">
-        <v>220.6317482341833</v>
+        <v>220.6317482341834</v>
       </c>
       <c r="U2" t="n">
         <v>251.3006207875862</v>
@@ -27473,10 +27473,10 @@
         <v>137.0423383070788</v>
       </c>
       <c r="H3" t="n">
-        <v>109.3266905470129</v>
+        <v>109.326690547013</v>
       </c>
       <c r="I3" t="n">
-        <v>79.02709767319243</v>
+        <v>79.02709767319277</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>81.45832587456417</v>
+        <v>81.45832587456479</v>
       </c>
       <c r="S3" t="n">
-        <v>166.0889059471789</v>
+        <v>166.0889059471791</v>
       </c>
       <c r="T3" t="n">
-        <v>198.9507665510271</v>
+        <v>198.9507665510272</v>
       </c>
       <c r="U3" t="n">
         <v>225.9215676825451</v>
@@ -27552,13 +27552,13 @@
         <v>167.7384811227313</v>
       </c>
       <c r="H4" t="n">
-        <v>159.9822336479721</v>
+        <v>159.9822336479722</v>
       </c>
       <c r="I4" t="n">
-        <v>147.8571643473827</v>
+        <v>147.857164347383</v>
       </c>
       <c r="J4" t="n">
-        <v>75.50755485074403</v>
+        <v>75.50755485074464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.0187591672827</v>
+        <v>65.01875916728341</v>
       </c>
       <c r="R4" t="n">
-        <v>165.9401525234619</v>
+        <v>165.9401525234623</v>
       </c>
       <c r="S4" t="n">
-        <v>219.6162424197953</v>
+        <v>219.6162424197954</v>
       </c>
       <c r="T4" t="n">
         <v>226.8667333301734</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.8739489829624</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>73.94873553131401</v>
+        <v>80.82478127302545</v>
       </c>
       <c r="S8" t="n">
         <v>183.9732413877317</v>
       </c>
       <c r="T8" t="n">
-        <v>218.2843305103083</v>
+        <v>211.4082847685968</v>
       </c>
       <c r="U8" t="n">
         <v>251.25772109189</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>321.6958373808355</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>166.6520778990163</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,13 +27941,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>130.6990002081793</v>
+        <v>136.7554212974788</v>
       </c>
       <c r="H9" t="n">
-        <v>99.67963052837456</v>
+        <v>106.555676270086</v>
       </c>
       <c r="I9" t="n">
         <v>69.14859536897993</v>
@@ -27980,13 +27980,13 @@
         <v>56.76825737891232</v>
       </c>
       <c r="S9" t="n">
-        <v>160.7595483346515</v>
+        <v>153.88350259294</v>
       </c>
       <c r="T9" t="n">
         <v>197.794289657069</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9026915634925</v>
+        <v>219.026645821781</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.4979395400497</v>
       </c>
       <c r="H10" t="n">
-        <v>151.7871792144666</v>
+        <v>157.843600303766</v>
       </c>
       <c r="I10" t="n">
-        <v>133.7473771919352</v>
+        <v>140.6234229336467</v>
       </c>
       <c r="J10" t="n">
-        <v>51.62521921343851</v>
+        <v>58.50126495514995</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.87668173018394</v>
+        <v>38.82026064088451</v>
       </c>
       <c r="R10" t="n">
-        <v>155.1245282694298</v>
+        <v>148.2484825277183</v>
       </c>
       <c r="S10" t="n">
         <v>215.424258656152</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5629015031292003</v>
+        <v>0.5629015031291812</v>
       </c>
       <c r="H2" t="n">
-        <v>5.764815018921923</v>
+        <v>5.764815018921728</v>
       </c>
       <c r="I2" t="n">
-        <v>21.70126019938851</v>
+        <v>21.70126019938778</v>
       </c>
       <c r="J2" t="n">
-        <v>47.77556145121201</v>
+        <v>47.77556145121039</v>
       </c>
       <c r="K2" t="n">
-        <v>71.60318207867107</v>
+        <v>71.60318207866864</v>
       </c>
       <c r="L2" t="n">
-        <v>88.83007895506134</v>
+        <v>88.83007895505834</v>
       </c>
       <c r="M2" t="n">
-        <v>98.84057856133525</v>
+        <v>98.84057856133191</v>
       </c>
       <c r="N2" t="n">
-        <v>100.4399224571011</v>
+        <v>100.4399224570977</v>
       </c>
       <c r="O2" t="n">
-        <v>94.84257063536012</v>
+        <v>94.84257063535689</v>
       </c>
       <c r="P2" t="n">
-        <v>80.94593977685797</v>
+        <v>80.94593977685523</v>
       </c>
       <c r="Q2" t="n">
-        <v>60.78702969604347</v>
+        <v>60.78702969604141</v>
       </c>
       <c r="R2" t="n">
-        <v>35.35936154593966</v>
+        <v>35.35936154593846</v>
       </c>
       <c r="S2" t="n">
-        <v>12.82711800255666</v>
+        <v>12.82711800255623</v>
       </c>
       <c r="T2" t="n">
-        <v>2.464101329948075</v>
+        <v>2.464101329947992</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04503212025033601</v>
+        <v>0.04503212025033448</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3011788561318172</v>
+        <v>0.3011788561318069</v>
       </c>
       <c r="H3" t="n">
-        <v>2.908753689483603</v>
+        <v>2.908753689483504</v>
       </c>
       <c r="I3" t="n">
-        <v>10.36953517822265</v>
+        <v>10.3695351782223</v>
       </c>
       <c r="J3" t="n">
-        <v>28.45479710498015</v>
+        <v>28.45479710497919</v>
       </c>
       <c r="K3" t="n">
-        <v>48.6337804658119</v>
+        <v>48.63378046581025</v>
       </c>
       <c r="L3" t="n">
-        <v>65.39411961756846</v>
+        <v>65.39411961756625</v>
       </c>
       <c r="M3" t="n">
-        <v>76.31185315234681</v>
+        <v>76.31185315234423</v>
       </c>
       <c r="N3" t="n">
-        <v>78.33160083228344</v>
+        <v>78.33160083228078</v>
       </c>
       <c r="O3" t="n">
-        <v>71.65811144115213</v>
+        <v>71.6581114411497</v>
       </c>
       <c r="P3" t="n">
-        <v>57.51195192222393</v>
+        <v>57.51195192222198</v>
       </c>
       <c r="Q3" t="n">
-        <v>38.4452167932474</v>
+        <v>38.4452167932461</v>
       </c>
       <c r="R3" t="n">
-        <v>18.69950827807897</v>
+        <v>18.69950827807834</v>
       </c>
       <c r="S3" t="n">
-        <v>5.594265156658969</v>
+        <v>5.594265156658778</v>
       </c>
       <c r="T3" t="n">
-        <v>1.213962143794473</v>
+        <v>1.213962143794432</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01981439842972482</v>
+        <v>0.01981439842972415</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2524982357274221</v>
+        <v>0.2524982357274136</v>
       </c>
       <c r="H4" t="n">
-        <v>2.244938859467446</v>
+        <v>2.24493885946737</v>
       </c>
       <c r="I4" t="n">
-        <v>7.59331057987557</v>
+        <v>7.593310579875313</v>
       </c>
       <c r="J4" t="n">
-        <v>17.85162526592875</v>
+        <v>17.85162526592814</v>
       </c>
       <c r="K4" t="n">
-        <v>29.33570411451322</v>
+        <v>29.33570411451223</v>
       </c>
       <c r="L4" t="n">
-        <v>37.53960133714784</v>
+        <v>37.53960133714657</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58024616952672</v>
+        <v>39.58024616952538</v>
       </c>
       <c r="N4" t="n">
-        <v>38.63911638181546</v>
+        <v>38.63911638181415</v>
       </c>
       <c r="O4" t="n">
-        <v>35.68947790081783</v>
+        <v>35.68947790081662</v>
       </c>
       <c r="P4" t="n">
-        <v>30.53851389197839</v>
+        <v>30.53851389197736</v>
       </c>
       <c r="Q4" t="n">
-        <v>21.14328408441169</v>
+        <v>21.14328408441097</v>
       </c>
       <c r="R4" t="n">
-        <v>11.35323885370754</v>
+        <v>11.35323885370716</v>
       </c>
       <c r="S4" t="n">
-        <v>4.400355617176983</v>
+        <v>4.400355617176833</v>
       </c>
       <c r="T4" t="n">
-        <v>1.078856098108076</v>
+        <v>1.07885609810804</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01377263103967759</v>
+        <v>0.01377263103967712</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31291,7 +31291,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31300,7 +31300,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31315,7 +31315,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31385,7 +31385,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31452,7 +31452,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31464,13 +31464,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.385797262362932</v>
+        <v>5.385797262362937</v>
       </c>
       <c r="H11" t="n">
-        <v>55.1572962131744</v>
+        <v>55.15729621317444</v>
       </c>
       <c r="I11" t="n">
-        <v>207.6359489572472</v>
+        <v>207.6359489572473</v>
       </c>
       <c r="J11" t="n">
-        <v>457.1128103964764</v>
+        <v>457.1128103964767</v>
       </c>
       <c r="K11" t="n">
-        <v>685.0936085122994</v>
+        <v>685.0936085123</v>
       </c>
       <c r="L11" t="n">
-        <v>849.9192014803392</v>
+        <v>849.9192014803399</v>
       </c>
       <c r="M11" t="n">
-        <v>945.6988735448859</v>
+        <v>945.6988735448867</v>
       </c>
       <c r="N11" t="n">
-        <v>961.0012700165747</v>
+        <v>961.0012700165755</v>
       </c>
       <c r="O11" t="n">
-        <v>907.4462484889533</v>
+        <v>907.446248488954</v>
       </c>
       <c r="P11" t="n">
-        <v>774.4843785743683</v>
+        <v>774.4843785743689</v>
       </c>
       <c r="Q11" t="n">
-        <v>581.6055141159956</v>
+        <v>581.605514115996</v>
       </c>
       <c r="R11" t="n">
-        <v>338.3155872819058</v>
+        <v>338.3155872819062</v>
       </c>
       <c r="S11" t="n">
-        <v>122.7288551160954</v>
+        <v>122.7288551160956</v>
       </c>
       <c r="T11" t="n">
-        <v>23.57632751599375</v>
+        <v>23.57632751599377</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4308637809890345</v>
+        <v>0.4308637809890349</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.881655582404849</v>
+        <v>2.881655582404851</v>
       </c>
       <c r="H12" t="n">
-        <v>27.83072628269946</v>
+        <v>27.83072628269949</v>
       </c>
       <c r="I12" t="n">
-        <v>99.21489614858801</v>
+        <v>99.21489614858808</v>
       </c>
       <c r="J12" t="n">
-        <v>272.2532583358897</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>465.3241823570149</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>625.6857877497902</v>
       </c>
       <c r="M12" t="n">
-        <v>730.1458026119652</v>
+        <v>730.1458026119659</v>
       </c>
       <c r="N12" t="n">
-        <v>749.4705893904611</v>
+        <v>638.9230977974955</v>
       </c>
       <c r="O12" t="n">
-        <v>685.619168327701</v>
+        <v>685.6191683277016</v>
       </c>
       <c r="P12" t="n">
-        <v>550.2698278365891</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>315.5733007047595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>178.9154229145749</v>
       </c>
       <c r="S12" t="n">
-        <v>53.52548855914266</v>
+        <v>53.5254885591427</v>
       </c>
       <c r="T12" t="n">
-        <v>11.61509421153533</v>
+        <v>11.61509421153534</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1895826041055822</v>
+        <v>0.1895826041055824</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.415883239203374</v>
+        <v>2.415883239203376</v>
       </c>
       <c r="H13" t="n">
-        <v>21.4793982540082</v>
+        <v>21.47939825400822</v>
       </c>
       <c r="I13" t="n">
-        <v>72.65219777531604</v>
+        <v>72.65219777531611</v>
       </c>
       <c r="J13" t="n">
-        <v>170.8029450116786</v>
+        <v>170.8029450116787</v>
       </c>
       <c r="K13" t="n">
-        <v>280.6817072456283</v>
+        <v>280.6817072456286</v>
       </c>
       <c r="L13" t="n">
-        <v>359.1759499448363</v>
+        <v>359.1759499448366</v>
       </c>
       <c r="M13" t="n">
-        <v>378.7006790325798</v>
+        <v>378.7006790325801</v>
       </c>
       <c r="N13" t="n">
-        <v>369.6960233228221</v>
+        <v>369.6960233228224</v>
       </c>
       <c r="O13" t="n">
-        <v>341.4741145739462</v>
+        <v>341.4741145739465</v>
       </c>
       <c r="P13" t="n">
-        <v>292.1900964941971</v>
+        <v>292.1900964941973</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.2972774209298</v>
+        <v>202.29727742093</v>
       </c>
       <c r="R13" t="n">
-        <v>108.6268954645444</v>
+        <v>108.6268954645445</v>
       </c>
       <c r="S13" t="n">
-        <v>42.10225608684424</v>
+        <v>42.10225608684429</v>
       </c>
       <c r="T13" t="n">
-        <v>10.32241020386896</v>
+        <v>10.32241020386897</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1317754494110933</v>
+        <v>0.1317754494110934</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.385797262362933</v>
+        <v>5.385797262362936</v>
       </c>
       <c r="H14" t="n">
-        <v>55.1572962131744</v>
+        <v>55.15729621317443</v>
       </c>
       <c r="I14" t="n">
-        <v>207.6359489572472</v>
+        <v>207.6359489572473</v>
       </c>
       <c r="J14" t="n">
-        <v>457.1128103964764</v>
+        <v>457.1128103964767</v>
       </c>
       <c r="K14" t="n">
-        <v>685.0936085122995</v>
+        <v>685.0936085122999</v>
       </c>
       <c r="L14" t="n">
-        <v>849.9192014803393</v>
+        <v>849.9192014803398</v>
       </c>
       <c r="M14" t="n">
-        <v>945.6988735448862</v>
+        <v>945.6988735448866</v>
       </c>
       <c r="N14" t="n">
-        <v>961.0012700165749</v>
+        <v>961.0012700165754</v>
       </c>
       <c r="O14" t="n">
-        <v>907.4462484889534</v>
+        <v>907.4462484889539</v>
       </c>
       <c r="P14" t="n">
-        <v>774.4843785743684</v>
+        <v>774.4843785743687</v>
       </c>
       <c r="Q14" t="n">
-        <v>581.6055141159957</v>
+        <v>581.6055141159959</v>
       </c>
       <c r="R14" t="n">
-        <v>338.3155872819059</v>
+        <v>338.3155872819061</v>
       </c>
       <c r="S14" t="n">
         <v>122.7288551160955</v>
       </c>
       <c r="T14" t="n">
-        <v>23.57632751599375</v>
+        <v>23.57632751599376</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4308637809890346</v>
+        <v>0.4308637809890348</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.881655582404849</v>
+        <v>2.881655582404851</v>
       </c>
       <c r="H15" t="n">
-        <v>27.83072628269947</v>
+        <v>27.83072628269948</v>
       </c>
       <c r="I15" t="n">
-        <v>99.21489614858802</v>
+        <v>99.21489614858807</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>272.2532583358899</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>465.3241823570149</v>
       </c>
       <c r="L15" t="n">
-        <v>625.6857877497898</v>
+        <v>625.6857877497901</v>
       </c>
       <c r="M15" t="n">
-        <v>730.1458026119653</v>
+        <v>730.1458026119658</v>
       </c>
       <c r="N15" t="n">
-        <v>749.4705893904612</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>685.6191683277011</v>
+        <v>685.6191683277015</v>
       </c>
       <c r="P15" t="n">
-        <v>384.1455781546331</v>
+        <v>268.2811282193668</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>367.8408073259245</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>178.9154229145749</v>
       </c>
       <c r="S15" t="n">
-        <v>53.52548855914267</v>
+        <v>53.52548855914269</v>
       </c>
       <c r="T15" t="n">
-        <v>11.61509421153533</v>
+        <v>11.61509421153534</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1895826041055823</v>
+        <v>0.1895826041055824</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.415883239203375</v>
+        <v>2.415883239203376</v>
       </c>
       <c r="H16" t="n">
-        <v>21.4793982540082</v>
+        <v>21.47939825400821</v>
       </c>
       <c r="I16" t="n">
-        <v>72.65219777531605</v>
+        <v>72.6521977753161</v>
       </c>
       <c r="J16" t="n">
-        <v>170.8029450116786</v>
+        <v>170.8029450116787</v>
       </c>
       <c r="K16" t="n">
-        <v>280.6817072456284</v>
+        <v>280.6817072456286</v>
       </c>
       <c r="L16" t="n">
-        <v>359.1759499448364</v>
+        <v>359.1759499448365</v>
       </c>
       <c r="M16" t="n">
-        <v>378.7006790325799</v>
+        <v>378.7006790325801</v>
       </c>
       <c r="N16" t="n">
-        <v>369.6960233228222</v>
+        <v>369.6960233228223</v>
       </c>
       <c r="O16" t="n">
-        <v>341.4741145739462</v>
+        <v>341.4741145739464</v>
       </c>
       <c r="P16" t="n">
-        <v>292.1900964941971</v>
+        <v>292.1900964941973</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.2972774209299</v>
+        <v>202.29727742093</v>
       </c>
       <c r="R16" t="n">
-        <v>108.6268954645444</v>
+        <v>108.6268954645445</v>
       </c>
       <c r="S16" t="n">
-        <v>42.10225608684425</v>
+        <v>42.10225608684428</v>
       </c>
       <c r="T16" t="n">
-        <v>10.32241020386896</v>
+        <v>10.32241020386897</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1317754494110933</v>
+        <v>0.1317754494110934</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.385797262362932</v>
+        <v>5.385797262362936</v>
       </c>
       <c r="H17" t="n">
-        <v>55.1572962131744</v>
+        <v>55.15729621317443</v>
       </c>
       <c r="I17" t="n">
-        <v>207.6359489572472</v>
+        <v>207.6359489572473</v>
       </c>
       <c r="J17" t="n">
-        <v>457.1128103964764</v>
+        <v>457.1128103964767</v>
       </c>
       <c r="K17" t="n">
-        <v>685.0936085122994</v>
+        <v>685.0936085122999</v>
       </c>
       <c r="L17" t="n">
-        <v>849.9192014803392</v>
+        <v>849.9192014803398</v>
       </c>
       <c r="M17" t="n">
-        <v>945.6988735448859</v>
+        <v>945.6988735448866</v>
       </c>
       <c r="N17" t="n">
-        <v>961.0012700165747</v>
+        <v>961.0012700165754</v>
       </c>
       <c r="O17" t="n">
-        <v>907.4462484889533</v>
+        <v>907.4462484889539</v>
       </c>
       <c r="P17" t="n">
-        <v>774.4843785743683</v>
+        <v>774.4843785743687</v>
       </c>
       <c r="Q17" t="n">
-        <v>581.6055141159956</v>
+        <v>581.6055141159959</v>
       </c>
       <c r="R17" t="n">
-        <v>338.3155872819058</v>
+        <v>338.3155872819061</v>
       </c>
       <c r="S17" t="n">
-        <v>122.7288551160954</v>
+        <v>122.7288551160955</v>
       </c>
       <c r="T17" t="n">
-        <v>23.57632751599375</v>
+        <v>23.57632751599376</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4308637809890345</v>
+        <v>0.4308637809890348</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.881655582404849</v>
+        <v>2.881655582404851</v>
       </c>
       <c r="H18" t="n">
-        <v>27.83072628269946</v>
+        <v>27.83072628269948</v>
       </c>
       <c r="I18" t="n">
-        <v>99.21489614858801</v>
+        <v>99.21489614858807</v>
       </c>
       <c r="J18" t="n">
-        <v>186.7498327641138</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>465.3241823570149</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>625.6857877497901</v>
       </c>
       <c r="M18" t="n">
-        <v>730.1458026119652</v>
+        <v>730.1458026119658</v>
       </c>
       <c r="N18" t="n">
-        <v>749.4705893904611</v>
+        <v>222.6276773752366</v>
       </c>
       <c r="O18" t="n">
-        <v>685.619168327701</v>
+        <v>685.6191683277015</v>
       </c>
       <c r="P18" t="n">
-        <v>550.2698278365891</v>
+        <v>550.2698278365895</v>
       </c>
       <c r="Q18" t="n">
-        <v>367.8408073259242</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>178.9154229145748</v>
+        <v>178.9154229145749</v>
       </c>
       <c r="S18" t="n">
-        <v>53.52548855914266</v>
+        <v>53.52548855914269</v>
       </c>
       <c r="T18" t="n">
-        <v>11.61509421153533</v>
+        <v>11.61509421153534</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1895826041055822</v>
+        <v>0.1895826041055824</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.415883239203374</v>
+        <v>2.415883239203376</v>
       </c>
       <c r="H19" t="n">
-        <v>21.4793982540082</v>
+        <v>21.47939825400821</v>
       </c>
       <c r="I19" t="n">
-        <v>72.65219777531604</v>
+        <v>72.6521977753161</v>
       </c>
       <c r="J19" t="n">
-        <v>170.8029450116786</v>
+        <v>170.8029450116787</v>
       </c>
       <c r="K19" t="n">
-        <v>280.6817072456283</v>
+        <v>280.6817072456286</v>
       </c>
       <c r="L19" t="n">
-        <v>359.1759499448363</v>
+        <v>359.1759499448365</v>
       </c>
       <c r="M19" t="n">
-        <v>378.7006790325798</v>
+        <v>378.7006790325801</v>
       </c>
       <c r="N19" t="n">
-        <v>369.6960233228221</v>
+        <v>369.6960233228223</v>
       </c>
       <c r="O19" t="n">
-        <v>341.4741145739462</v>
+        <v>341.4741145739464</v>
       </c>
       <c r="P19" t="n">
-        <v>292.1900964941971</v>
+        <v>292.1900964941973</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.2972774209298</v>
+        <v>202.29727742093</v>
       </c>
       <c r="R19" t="n">
-        <v>108.6268954645444</v>
+        <v>108.6268954645445</v>
       </c>
       <c r="S19" t="n">
-        <v>42.10225608684424</v>
+        <v>42.10225608684428</v>
       </c>
       <c r="T19" t="n">
-        <v>10.32241020386896</v>
+        <v>10.32241020386897</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1317754494110933</v>
+        <v>0.1317754494110934</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.385797262362932</v>
+        <v>5.385797262362936</v>
       </c>
       <c r="H20" t="n">
-        <v>55.1572962131744</v>
+        <v>55.15729621317443</v>
       </c>
       <c r="I20" t="n">
-        <v>207.6359489572472</v>
+        <v>207.6359489572473</v>
       </c>
       <c r="J20" t="n">
-        <v>457.1128103964764</v>
+        <v>457.1128103964767</v>
       </c>
       <c r="K20" t="n">
-        <v>685.0936085122994</v>
+        <v>685.0936085122999</v>
       </c>
       <c r="L20" t="n">
-        <v>849.9192014803392</v>
+        <v>849.9192014803398</v>
       </c>
       <c r="M20" t="n">
-        <v>945.6988735448859</v>
+        <v>945.6988735448866</v>
       </c>
       <c r="N20" t="n">
-        <v>961.0012700165747</v>
+        <v>961.0012700165754</v>
       </c>
       <c r="O20" t="n">
-        <v>907.4462484889533</v>
+        <v>907.4462484889539</v>
       </c>
       <c r="P20" t="n">
-        <v>774.4843785743683</v>
+        <v>774.4843785743687</v>
       </c>
       <c r="Q20" t="n">
-        <v>581.6055141159956</v>
+        <v>581.6055141159959</v>
       </c>
       <c r="R20" t="n">
-        <v>338.3155872819058</v>
+        <v>338.3155872819061</v>
       </c>
       <c r="S20" t="n">
-        <v>122.7288551160954</v>
+        <v>122.7288551160955</v>
       </c>
       <c r="T20" t="n">
-        <v>23.57632751599375</v>
+        <v>23.57632751599376</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4308637809890345</v>
+        <v>0.4308637809890348</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.881655582404849</v>
+        <v>2.881655582404851</v>
       </c>
       <c r="H21" t="n">
-        <v>27.83072628269946</v>
+        <v>27.83072628269948</v>
       </c>
       <c r="I21" t="n">
-        <v>99.21489614858801</v>
+        <v>99.21489614858807</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>272.2532583358899</v>
       </c>
       <c r="K21" t="n">
-        <v>465.3241823570145</v>
+        <v>465.3241823570149</v>
       </c>
       <c r="L21" t="n">
-        <v>625.6857877497897</v>
+        <v>625.6857877497901</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>749.4705893904611</v>
+        <v>749.4705893904616</v>
       </c>
       <c r="O21" t="n">
-        <v>685.619168327701</v>
+        <v>685.6191683277015</v>
       </c>
       <c r="P21" t="n">
-        <v>550.2698278365891</v>
+        <v>466.023052842089</v>
       </c>
       <c r="Q21" t="n">
-        <v>234.3865497113582</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>178.9154229145749</v>
       </c>
       <c r="S21" t="n">
-        <v>53.52548855914266</v>
+        <v>53.52548855914269</v>
       </c>
       <c r="T21" t="n">
-        <v>11.61509421153533</v>
+        <v>11.61509421153534</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1895826041055822</v>
+        <v>0.1895826041055824</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.415883239203374</v>
+        <v>2.415883239203376</v>
       </c>
       <c r="H22" t="n">
-        <v>21.4793982540082</v>
+        <v>21.47939825400821</v>
       </c>
       <c r="I22" t="n">
-        <v>72.65219777531604</v>
+        <v>72.6521977753161</v>
       </c>
       <c r="J22" t="n">
-        <v>170.8029450116786</v>
+        <v>170.8029450116787</v>
       </c>
       <c r="K22" t="n">
-        <v>280.6817072456283</v>
+        <v>280.6817072456286</v>
       </c>
       <c r="L22" t="n">
-        <v>359.1759499448363</v>
+        <v>359.1759499448365</v>
       </c>
       <c r="M22" t="n">
-        <v>378.7006790325798</v>
+        <v>378.7006790325801</v>
       </c>
       <c r="N22" t="n">
-        <v>369.6960233228221</v>
+        <v>369.6960233228223</v>
       </c>
       <c r="O22" t="n">
-        <v>341.4741145739462</v>
+        <v>341.4741145739464</v>
       </c>
       <c r="P22" t="n">
-        <v>292.1900964941971</v>
+        <v>292.1900964941973</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.2972774209298</v>
+        <v>202.29727742093</v>
       </c>
       <c r="R22" t="n">
-        <v>108.6268954645444</v>
+        <v>108.6268954645445</v>
       </c>
       <c r="S22" t="n">
-        <v>42.10225608684424</v>
+        <v>42.10225608684428</v>
       </c>
       <c r="T22" t="n">
-        <v>10.32241020386896</v>
+        <v>10.32241020386897</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1317754494110933</v>
+        <v>0.1317754494110934</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>253.789154788141</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>346.0352130058784</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>557.7961431982454</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>273.1667658614674</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33035,19 +33035,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.3260983776877</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S27" t="n">
         <v>54.25758340862161</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>634.2436048745725</v>
@@ -33281,10 +33281,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q30" t="n">
-        <v>190.6554855117211</v>
+        <v>339.6802901355624</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862161</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>730.2891549767426</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927639</v>
@@ -33515,10 +33515,10 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>190.6554855117211</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,7 +33731,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
         <v>275.9770021735818</v>
@@ -33743,22 +33743,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>391.6330708361143</v>
       </c>
       <c r="O36" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>489.7119024980487</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33968,10 +33968,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>471.6886536848224</v>
@@ -33980,13 +33980,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>394.0223077997498</v>
+        <v>476.0476974928857</v>
       </c>
       <c r="P39" t="n">
         <v>557.7961431982454</v>
@@ -33995,7 +33995,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>740.1323715504302</v>
@@ -34223,16 +34223,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>225.6487373053106</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.3260983776882</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S42" t="n">
         <v>54.25758340862161</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>140.4762299467352</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504302</v>
+        <v>403.4749205278523</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>694.9967242426205</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.598225711743296</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0669058697901</v>
+        <v>276.0669058697904</v>
       </c>
       <c r="K11" t="n">
-        <v>465.0037574673188</v>
+        <v>465.0037574673194</v>
       </c>
       <c r="L11" t="n">
-        <v>614.1527865103519</v>
+        <v>614.1527865103526</v>
       </c>
       <c r="M11" t="n">
-        <v>715.3526403176132</v>
+        <v>715.352640317614</v>
       </c>
       <c r="N11" t="n">
-        <v>731.5882064199839</v>
+        <v>731.5882064199845</v>
       </c>
       <c r="O11" t="n">
-        <v>677.3480370672665</v>
+        <v>677.3480370672672</v>
       </c>
       <c r="P11" t="n">
-        <v>543.2513828190988</v>
+        <v>543.2513828190993</v>
       </c>
       <c r="Q11" t="n">
-        <v>359.299824241546</v>
+        <v>359.2998242415465</v>
       </c>
       <c r="R11" t="n">
-        <v>122.7300494677737</v>
+        <v>122.7300494677741</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>145.415631669223</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>327.4827433826559</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>487.131407969916</v>
       </c>
       <c r="M12" t="n">
-        <v>588.0117686899468</v>
+        <v>588.0117686899475</v>
       </c>
       <c r="N12" t="n">
-        <v>618.1288773071278</v>
+        <v>507.5813857141623</v>
       </c>
       <c r="O12" t="n">
-        <v>543.0229238832566</v>
+        <v>543.0229238832571</v>
       </c>
       <c r="P12" t="n">
-        <v>416.2954204222589</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>175.591526618738</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>33.23591895061099</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>77.44376489500578</v>
+        <v>77.44376489500593</v>
       </c>
       <c r="K13" t="n">
-        <v>258.4122154197455</v>
+        <v>258.4122154197457</v>
       </c>
       <c r="L13" t="n">
-        <v>386.7659752051525</v>
+        <v>386.7659752051527</v>
       </c>
       <c r="M13" t="n">
-        <v>418.2845559944204</v>
+        <v>418.2845559944207</v>
       </c>
       <c r="N13" t="n">
-        <v>413.8281957020507</v>
+        <v>413.8281957020509</v>
       </c>
       <c r="O13" t="n">
-        <v>366.0592424879858</v>
+        <v>366.0592424879861</v>
       </c>
       <c r="P13" t="n">
-        <v>289.4686557590906</v>
+        <v>289.4686557590908</v>
       </c>
       <c r="Q13" t="n">
-        <v>116.1352341692355</v>
+        <v>116.1352341692356</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0669058697902</v>
+        <v>276.0669058697904</v>
       </c>
       <c r="K14" t="n">
-        <v>465.003757467319</v>
+        <v>465.0037574673193</v>
       </c>
       <c r="L14" t="n">
-        <v>614.1527865103521</v>
+        <v>614.1527865103526</v>
       </c>
       <c r="M14" t="n">
-        <v>715.3526403176135</v>
+        <v>715.3526403176139</v>
       </c>
       <c r="N14" t="n">
-        <v>731.5882064199841</v>
+        <v>731.5882064199845</v>
       </c>
       <c r="O14" t="n">
-        <v>677.3480370672667</v>
+        <v>677.3480370672671</v>
       </c>
       <c r="P14" t="n">
-        <v>543.2513828190988</v>
+        <v>543.2513828190993</v>
       </c>
       <c r="Q14" t="n">
-        <v>359.2998242415462</v>
+        <v>359.2998242415464</v>
       </c>
       <c r="R14" t="n">
-        <v>122.7300494677738</v>
+        <v>122.730049467774</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>145.4156316692232</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>327.4827433826559</v>
       </c>
       <c r="L15" t="n">
-        <v>487.1314079699156</v>
+        <v>487.1314079699159</v>
       </c>
       <c r="M15" t="n">
-        <v>588.0117686899471</v>
+        <v>588.0117686899475</v>
       </c>
       <c r="N15" t="n">
-        <v>618.1288773071279</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>543.0229238832567</v>
+        <v>543.022923883257</v>
       </c>
       <c r="P15" t="n">
-        <v>250.1711707403028</v>
+        <v>134.3067208050366</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.8590332399029</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>33.23591895061097</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>77.44376489500581</v>
+        <v>77.4437648950059</v>
       </c>
       <c r="K16" t="n">
-        <v>258.4122154197455</v>
+        <v>258.4122154197457</v>
       </c>
       <c r="L16" t="n">
-        <v>386.7659752051525</v>
+        <v>386.7659752051527</v>
       </c>
       <c r="M16" t="n">
-        <v>418.2845559944205</v>
+        <v>418.2845559944207</v>
       </c>
       <c r="N16" t="n">
-        <v>413.8281957020507</v>
+        <v>413.8281957020509</v>
       </c>
       <c r="O16" t="n">
-        <v>366.0592424879859</v>
+        <v>366.0592424879861</v>
       </c>
       <c r="P16" t="n">
-        <v>289.4686557590906</v>
+        <v>289.4686557590908</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.1352341692355</v>
+        <v>116.1352341692356</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0669058697901</v>
+        <v>276.0669058697904</v>
       </c>
       <c r="K17" t="n">
-        <v>465.0037574673188</v>
+        <v>465.0037574673193</v>
       </c>
       <c r="L17" t="n">
-        <v>614.1527865103519</v>
+        <v>614.1527865103526</v>
       </c>
       <c r="M17" t="n">
-        <v>715.3526403176132</v>
+        <v>715.3526403176139</v>
       </c>
       <c r="N17" t="n">
-        <v>731.5882064199839</v>
+        <v>731.5882064199845</v>
       </c>
       <c r="O17" t="n">
-        <v>677.3480370672665</v>
+        <v>677.3480370672671</v>
       </c>
       <c r="P17" t="n">
-        <v>543.2513828190988</v>
+        <v>543.2513828190993</v>
       </c>
       <c r="Q17" t="n">
-        <v>359.299824241546</v>
+        <v>359.2998242415464</v>
       </c>
       <c r="R17" t="n">
-        <v>122.7300494677737</v>
+        <v>122.730049467774</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>59.91220609744709</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>327.4827433826559</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>487.1314079699159</v>
       </c>
       <c r="M18" t="n">
-        <v>588.0117686899468</v>
+        <v>588.0117686899475</v>
       </c>
       <c r="N18" t="n">
-        <v>618.1288773071278</v>
+        <v>91.28596529190331</v>
       </c>
       <c r="O18" t="n">
-        <v>543.0229238832566</v>
+        <v>543.022923883257</v>
       </c>
       <c r="P18" t="n">
-        <v>416.2954204222589</v>
+        <v>416.2954204222592</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.8590332399027</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>33.23591895061085</v>
+        <v>33.23591895061097</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>77.44376489500578</v>
+        <v>77.4437648950059</v>
       </c>
       <c r="K19" t="n">
-        <v>258.4122154197455</v>
+        <v>258.4122154197457</v>
       </c>
       <c r="L19" t="n">
-        <v>386.7659752051525</v>
+        <v>386.7659752051527</v>
       </c>
       <c r="M19" t="n">
-        <v>418.2845559944204</v>
+        <v>418.2845559944207</v>
       </c>
       <c r="N19" t="n">
-        <v>413.8281957020507</v>
+        <v>413.8281957020509</v>
       </c>
       <c r="O19" t="n">
-        <v>366.0592424879858</v>
+        <v>366.0592424879861</v>
       </c>
       <c r="P19" t="n">
-        <v>289.4686557590906</v>
+        <v>289.4686557590908</v>
       </c>
       <c r="Q19" t="n">
-        <v>116.1352341692355</v>
+        <v>116.1352341692356</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0669058697901</v>
+        <v>276.0669058697904</v>
       </c>
       <c r="K20" t="n">
-        <v>465.0037574673188</v>
+        <v>465.0037574673193</v>
       </c>
       <c r="L20" t="n">
-        <v>614.1527865103519</v>
+        <v>614.1527865103526</v>
       </c>
       <c r="M20" t="n">
-        <v>715.3526403176132</v>
+        <v>715.3526403176139</v>
       </c>
       <c r="N20" t="n">
-        <v>731.5882064199839</v>
+        <v>731.5882064199845</v>
       </c>
       <c r="O20" t="n">
-        <v>677.3480370672665</v>
+        <v>677.3480370672671</v>
       </c>
       <c r="P20" t="n">
-        <v>543.2513828190988</v>
+        <v>543.2513828190993</v>
       </c>
       <c r="Q20" t="n">
-        <v>359.299824241546</v>
+        <v>359.2998242415464</v>
       </c>
       <c r="R20" t="n">
-        <v>122.7300494677737</v>
+        <v>122.730049467774</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>145.4156316692232</v>
       </c>
       <c r="K21" t="n">
-        <v>327.4827433826555</v>
+        <v>327.4827433826559</v>
       </c>
       <c r="L21" t="n">
-        <v>487.1314079699155</v>
+        <v>487.1314079699159</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>618.1288773071278</v>
+        <v>618.1288773071283</v>
       </c>
       <c r="O21" t="n">
-        <v>543.0229238832566</v>
+        <v>543.022923883257</v>
       </c>
       <c r="P21" t="n">
-        <v>416.2954204222589</v>
+        <v>332.0486454277588</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.40477562533663</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>33.23591895061097</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.44376489500578</v>
+        <v>77.4437648950059</v>
       </c>
       <c r="K22" t="n">
-        <v>258.4122154197455</v>
+        <v>258.4122154197457</v>
       </c>
       <c r="L22" t="n">
-        <v>386.7659752051525</v>
+        <v>386.7659752051527</v>
       </c>
       <c r="M22" t="n">
-        <v>418.2845559944204</v>
+        <v>418.2845559944207</v>
       </c>
       <c r="N22" t="n">
-        <v>413.8281957020507</v>
+        <v>413.8281957020509</v>
       </c>
       <c r="O22" t="n">
-        <v>366.0592424879858</v>
+        <v>366.0592424879861</v>
       </c>
       <c r="P22" t="n">
-        <v>289.4686557590906</v>
+        <v>289.4686557590908</v>
       </c>
       <c r="Q22" t="n">
-        <v>116.1352341692355</v>
+        <v>116.1352341692356</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380626</v>
+        <v>525.686772867153</v>
       </c>
       <c r="L23" t="n">
         <v>625.7775560664393</v>
@@ -36367,7 +36367,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
-        <v>796.0449487554599</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
         <v>689.7596327870085</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>115.947715813782</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>214.6935009225451</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>423.8217357839152</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>146.3291391948007</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.3443242916662</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,10 +36844,10 @@
         <v>744.73230092637</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P29" t="n">
-        <v>605.1570404425727</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
         <v>367.2547334404112</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>495.6892250946983</v>
@@ -36929,10 +36929,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.67371142569957</v>
+        <v>199.6985160495408</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,13 +37084,13 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P32" t="n">
-        <v>605.1570404425727</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q32" t="n">
         <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>588.1551210547243</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094306</v>
@@ -37163,10 +37163,10 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.67371142569957</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,10 +37324,10 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404117</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845848</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J36" t="n">
         <v>149.1393755069151</v>
@@ -37391,22 +37391,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>260.291358752781</v>
       </c>
       <c r="O36" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>355.7374950837184</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,13 +37552,13 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263716</v>
       </c>
       <c r="O38" t="n">
         <v>689.7596327870085</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134843</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q38" t="n">
         <v>367.2547334404112</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>333.8472147104634</v>
@@ -37628,13 +37628,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>251.4260633553054</v>
+        <v>333.4514530484413</v>
       </c>
       <c r="P39" t="n">
         <v>423.8217357839152</v>
@@ -37643,7 +37643,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845848</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>597.9983376284119</v>
@@ -37871,16 +37871,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>83.05249286086615</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.3443242916667</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>13.63860328006852</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284119</v>
+        <v>261.340886605834</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>552.4004797981761</v>
